--- a/Avaliação/Tabelas.xlsx
+++ b/Avaliação/Tabelas.xlsx
@@ -488,11 +488,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -502,21 +499,27 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
@@ -525,8 +528,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -831,8 +834,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:O118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D86" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="Q117" sqref="Q117"/>
+    <sheetView tabSelected="1" topLeftCell="D76" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="N120" sqref="N120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -843,4100 +846,4142 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A1" s="7"/>
-      <c r="B1" s="7"/>
-      <c r="C1" s="7"/>
-      <c r="D1" s="9"/>
-      <c r="E1" s="7"/>
-      <c r="F1" s="7"/>
-      <c r="G1" s="7"/>
-      <c r="H1" s="7"/>
-      <c r="I1" s="7"/>
-      <c r="J1" s="7"/>
-      <c r="K1" s="7"/>
-      <c r="L1" s="7"/>
-      <c r="M1" s="7"/>
-      <c r="N1" s="7"/>
+      <c r="A1" s="4"/>
+      <c r="B1" s="4"/>
+      <c r="C1" s="4"/>
+      <c r="D1" s="6"/>
+      <c r="E1" s="4"/>
+      <c r="F1" s="4"/>
+      <c r="G1" s="4"/>
+      <c r="H1" s="4"/>
+      <c r="I1" s="4"/>
+      <c r="J1" s="4"/>
+      <c r="K1" s="4"/>
+      <c r="L1" s="4"/>
+      <c r="M1" s="4"/>
+      <c r="N1" s="4"/>
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" s="7"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="10" t="s">
+      <c r="A2" s="4"/>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4"/>
+      <c r="D2" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10"/>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10"/>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
-      <c r="L2" s="10"/>
-      <c r="M2" s="10"/>
-      <c r="N2" s="10"/>
-      <c r="O2" s="10"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+      <c r="H2" s="15"/>
+      <c r="I2" s="15"/>
+      <c r="J2" s="15"/>
+      <c r="K2" s="15"/>
+      <c r="L2" s="15"/>
+      <c r="M2" s="15"/>
+      <c r="N2" s="15"/>
+      <c r="O2" s="15"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A3" s="7"/>
-      <c r="B3" s="7"/>
-      <c r="C3" s="7"/>
+      <c r="A3" s="4"/>
+      <c r="B3" s="4"/>
+      <c r="C3" s="4"/>
       <c r="D3" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E3" s="3" t="s">
+      <c r="E3" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="G3" s="6"/>
-      <c r="H3" s="2" t="s">
+      <c r="G3" s="11"/>
+      <c r="H3" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2" t="s">
+      <c r="I3" s="12"/>
+      <c r="J3" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2" t="s">
+      <c r="K3" s="12"/>
+      <c r="L3" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2" t="s">
+      <c r="M3" s="12"/>
+      <c r="N3" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="O3" s="2"/>
+      <c r="O3" s="12"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A4" s="7"/>
-      <c r="B4" s="7"/>
-      <c r="C4" s="7"/>
-      <c r="D4" s="4" t="s">
+      <c r="A4" s="4"/>
+      <c r="B4" s="4"/>
+      <c r="C4" s="4"/>
+      <c r="D4" s="8" t="s">
         <v>46</v>
       </c>
-      <c r="E4" s="3">
+      <c r="E4" s="2">
         <v>100</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="G4" s="3" t="s">
+      <c r="G4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="H4" s="3" t="s">
+      <c r="H4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="I4" s="3" t="s">
+      <c r="I4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="J4" s="3" t="s">
+      <c r="J4" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="K4" s="3" t="s">
+      <c r="K4" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L4" s="3" t="s">
+      <c r="L4" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="M4" s="3" t="s">
+      <c r="M4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="N4" s="3" t="s">
+      <c r="N4" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="O4" s="3" t="s">
+      <c r="O4" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A5" s="7"/>
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="4"/>
-      <c r="E5" s="3">
+      <c r="A5" s="4"/>
+      <c r="B5" s="4"/>
+      <c r="C5" s="4"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="2">
         <v>200</v>
       </c>
-      <c r="F5" s="3" t="s">
+      <c r="F5" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G5" s="3" t="s">
+      <c r="G5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H5" s="3" t="s">
+      <c r="H5" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="I5" s="3" t="s">
+      <c r="I5" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="J5" s="3" t="s">
+      <c r="J5" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="K5" s="3" t="s">
+      <c r="K5" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="L5" s="3" t="s">
+      <c r="L5" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="M5" s="3" t="s">
+      <c r="M5" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="N5" s="3" t="s">
+      <c r="N5" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="O5" s="3" t="s">
+      <c r="O5" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A6" s="7"/>
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="4" t="s">
+      <c r="A6" s="4"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="8" t="s">
         <v>47</v>
       </c>
-      <c r="E6" s="3">
+      <c r="E6" s="2">
         <v>100</v>
       </c>
-      <c r="F6" s="3" t="s">
+      <c r="F6" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H6" s="3" t="s">
+      <c r="G6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H6" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I6" s="3" t="s">
+      <c r="I6" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="J6" s="3" t="s">
+      <c r="J6" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="K6" s="3" t="s">
+      <c r="K6" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="L6" s="3" t="s">
+      <c r="L6" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="M6" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N6" s="3" t="s">
+      <c r="M6" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="N6" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="O6" s="3" t="s">
+      <c r="O6" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A7" s="7"/>
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="4"/>
-      <c r="E7" s="3">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="2">
         <v>200</v>
       </c>
-      <c r="F7" s="3" t="s">
+      <c r="F7" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G7" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H7" s="3" t="s">
+      <c r="G7" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H7" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="I7" s="3" t="s">
+      <c r="I7" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J7" s="3" t="s">
+      <c r="J7" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="K7" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="L7" s="3" t="s">
+      <c r="K7" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="M7" s="3" t="s">
+      <c r="M7" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="N7" s="3" t="s">
+      <c r="N7" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="O7" s="3" t="s">
+      <c r="O7" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A8" s="7"/>
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="4" t="s">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="8" t="s">
         <v>48</v>
       </c>
-      <c r="E8" s="3">
+      <c r="E8" s="2">
         <v>100</v>
       </c>
-      <c r="F8" s="3" t="s">
+      <c r="F8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="3" t="s">
+      <c r="G8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H8" s="3" t="s">
+      <c r="H8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I8" s="3" t="s">
+      <c r="I8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="J8" s="3" t="s">
+      <c r="J8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="K8" s="3" t="s">
+      <c r="K8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="L8" s="3" t="s">
+      <c r="L8" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M8" s="3" t="s">
+      <c r="M8" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N8" s="3" t="s">
+      <c r="N8" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="O8" s="3" t="s">
+      <c r="O8" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A9" s="7"/>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="4"/>
-      <c r="E9" s="3">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="8"/>
+      <c r="E9" s="2">
         <v>200</v>
       </c>
-      <c r="F9" s="3" t="s">
+      <c r="F9" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="3" t="s">
+      <c r="G9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H9" s="3" t="s">
+      <c r="H9" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I9" s="3" t="s">
+      <c r="I9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="J9" s="3" t="s">
+      <c r="J9" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="K9" s="3" t="s">
+      <c r="K9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="L9" s="3" t="s">
+      <c r="L9" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M9" s="3" t="s">
+      <c r="M9" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N9" s="3" t="s">
+      <c r="N9" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="O9" s="3" t="s">
+      <c r="O9" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A10" s="7"/>
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="4" t="s">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="8" t="s">
         <v>49</v>
       </c>
-      <c r="E10" s="3">
+      <c r="E10" s="2">
         <v>100</v>
       </c>
-      <c r="F10" s="3" t="s">
+      <c r="F10" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="G10" s="3" t="s">
+      <c r="G10" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H10" s="3" t="s">
+      <c r="H10" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="I10" s="3" t="s">
+      <c r="I10" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="J10" s="3" t="s">
+      <c r="J10" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="K10" s="3" t="s">
+      <c r="K10" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="L10" s="3" t="s">
+      <c r="L10" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="M10" s="3" t="s">
+      <c r="M10" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="N10" s="3" t="s">
+      <c r="N10" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="O10" s="3" t="s">
+      <c r="O10" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A11" s="7"/>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="4"/>
-      <c r="E11" s="3">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="8"/>
+      <c r="E11" s="2">
         <v>200</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="F11" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="G11" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="H11" s="3" t="s">
+      <c r="H11" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="I11" s="3" t="s">
+      <c r="I11" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="J11" s="3" t="s">
+      <c r="J11" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="K11" s="3" t="s">
+      <c r="K11" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="L11" s="3" t="s">
+      <c r="L11" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="M11" s="3" t="s">
+      <c r="M11" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="N11" s="3" t="s">
+      <c r="N11" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="O11" s="3" t="s">
+      <c r="O11" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A12" s="7"/>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="4" t="s">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="8" t="s">
         <v>50</v>
       </c>
-      <c r="E12" s="3">
+      <c r="E12" s="2">
         <v>100</v>
       </c>
-      <c r="F12" s="3" t="s">
+      <c r="F12" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G12" s="3" t="s">
+      <c r="G12" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H12" s="3" t="s">
+      <c r="H12" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I12" s="3" t="s">
+      <c r="I12" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="J12" s="3" t="s">
+      <c r="J12" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="K12" s="3" t="s">
+      <c r="K12" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="L12" s="3" t="s">
+      <c r="L12" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="M12" s="3" t="s">
+      <c r="M12" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N12" s="3" t="s">
+      <c r="N12" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="O12" s="3" t="s">
+      <c r="O12" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A13" s="7"/>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="3">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="8"/>
+      <c r="E13" s="2">
         <v>200</v>
       </c>
-      <c r="F13" s="3" t="s">
+      <c r="F13" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G13" s="3" t="s">
+      <c r="G13" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="H13" s="3" t="s">
+      <c r="H13" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I13" s="3" t="s">
+      <c r="I13" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="J13" s="3" t="s">
+      <c r="J13" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="K13" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="L13" s="3" t="s">
+      <c r="K13" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L13" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="M13" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="N13" s="3" t="s">
+      <c r="M13" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="N13" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="O13" s="3" t="s">
+      <c r="O13" s="2" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A14" s="7"/>
-      <c r="B14" s="7"/>
-      <c r="C14" s="7"/>
-      <c r="D14" s="4" t="s">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="8" t="s">
         <v>51</v>
       </c>
-      <c r="E14" s="3">
+      <c r="E14" s="2">
         <v>100</v>
       </c>
-      <c r="F14" s="3" t="s">
+      <c r="F14" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G14" s="3" t="s">
+      <c r="G14" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H14" s="3" t="s">
+      <c r="H14" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I14" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J14" s="3" t="s">
+      <c r="I14" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J14" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="K14" s="3" t="s">
+      <c r="K14" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="L14" s="3" t="s">
+      <c r="L14" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="M14" s="3" t="s">
+      <c r="M14" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="N14" s="3" t="s">
+      <c r="N14" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="O14" s="3" t="s">
+      <c r="O14" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A15" s="7"/>
-      <c r="B15" s="7"/>
-      <c r="C15" s="7"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="3">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="8"/>
+      <c r="E15" s="2">
         <v>200</v>
       </c>
-      <c r="F15" s="3" t="s">
+      <c r="F15" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H15" s="3" t="s">
+      <c r="G15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H15" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I15" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J15" s="3" t="s">
+      <c r="I15" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J15" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="K15" s="3" t="s">
+      <c r="K15" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="L15" s="3" t="s">
+      <c r="L15" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="M15" s="3" t="s">
+      <c r="M15" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="N15" s="3" t="s">
+      <c r="N15" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O15" s="3" t="s">
+      <c r="O15" s="2" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A16" s="7"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="7"/>
-      <c r="D16" s="4" t="s">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="E16" s="3">
+      <c r="E16" s="2">
         <v>100</v>
       </c>
-      <c r="F16" s="3" t="s">
+      <c r="F16" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G16" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H16" s="3" t="s">
+      <c r="G16" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H16" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I16" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J16" s="3" t="s">
+      <c r="I16" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J16" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="K16" s="3" t="s">
+      <c r="K16" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="L16" s="3" t="s">
+      <c r="L16" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="M16" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="N16" s="3" t="s">
+      <c r="M16" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="N16" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="O16" s="3" t="s">
+      <c r="O16" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A17" s="7"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="7"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="3">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="8"/>
+      <c r="E17" s="2">
         <v>200</v>
       </c>
-      <c r="F17" s="3" t="s">
+      <c r="F17" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G17" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H17" s="3" t="s">
+      <c r="G17" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H17" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I17" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J17" s="3" t="s">
+      <c r="I17" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J17" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="K17" s="3" t="s">
+      <c r="K17" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="L17" s="3" t="s">
+      <c r="L17" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="M17" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="N17" s="3" t="s">
+      <c r="M17" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="N17" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="O17" s="3" t="s">
+      <c r="O17" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A18" s="7"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="7"/>
-      <c r="D18" s="4" t="s">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="8" t="s">
         <v>53</v>
       </c>
-      <c r="E18" s="3">
+      <c r="E18" s="2">
         <v>100</v>
       </c>
-      <c r="F18" s="3" t="s">
+      <c r="F18" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G18" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H18" s="3" t="s">
+      <c r="G18" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H18" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="I18" s="3" t="s">
+      <c r="I18" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="J18" s="3" t="s">
+      <c r="J18" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="K18" s="3" t="s">
+      <c r="K18" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="L18" s="3" t="s">
+      <c r="L18" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="M18" s="3" t="s">
+      <c r="M18" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="N18" s="3" t="s">
+      <c r="N18" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O18" s="3" t="s">
+      <c r="O18" s="2" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A19" s="7"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="7"/>
-      <c r="D19" s="4"/>
-      <c r="E19" s="3">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="8"/>
+      <c r="E19" s="2">
         <v>200</v>
       </c>
-      <c r="F19" s="3" t="s">
+      <c r="F19" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G19" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H19" s="3" t="s">
+      <c r="G19" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H19" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="I19" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J19" s="3" t="s">
+      <c r="I19" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J19" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="K19" s="3" t="s">
+      <c r="K19" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="L19" s="3" t="s">
+      <c r="L19" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="M19" s="3" t="s">
+      <c r="M19" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="N19" s="3" t="s">
+      <c r="N19" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="O19" s="3" t="s">
+      <c r="O19" s="2" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A20" s="7"/>
-      <c r="B20" s="7"/>
-      <c r="C20" s="7"/>
-      <c r="D20" s="4" t="s">
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="8" t="s">
         <v>54</v>
       </c>
-      <c r="E20" s="3">
+      <c r="E20" s="2">
         <v>100</v>
       </c>
-      <c r="F20" s="3" t="s">
+      <c r="F20" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="G20" s="3" t="s">
+      <c r="G20" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="H20" s="3" t="s">
+      <c r="H20" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="I20" s="3" t="s">
+      <c r="I20" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J20" s="3" t="s">
+      <c r="J20" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="K20" s="3" t="s">
+      <c r="K20" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="L20" s="3" t="s">
+      <c r="L20" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="M20" s="3" t="s">
+      <c r="M20" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="N20" s="3" t="s">
+      <c r="N20" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="O20" s="3" t="s">
+      <c r="O20" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A21" s="7"/>
-      <c r="B21" s="7"/>
-      <c r="C21" s="7"/>
-      <c r="D21" s="4"/>
-      <c r="E21" s="3">
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="2">
         <v>200</v>
       </c>
-      <c r="F21" s="3" t="s">
+      <c r="F21" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="G21" s="3" t="s">
+      <c r="G21" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H21" s="3" t="s">
+      <c r="H21" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="I21" s="3" t="s">
+      <c r="I21" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="J21" s="3" t="s">
+      <c r="J21" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="K21" s="3" t="s">
+      <c r="K21" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="L21" s="3" t="s">
+      <c r="L21" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="M21" s="3" t="s">
+      <c r="M21" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="N21" s="3" t="s">
+      <c r="N21" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="O21" s="3" t="s">
+      <c r="O21" s="2" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A22" s="7"/>
-      <c r="B22" s="7"/>
-      <c r="C22" s="7"/>
-      <c r="D22" s="4" t="s">
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="E22" s="3">
+      <c r="E22" s="2">
         <v>100</v>
       </c>
-      <c r="F22" s="3" t="s">
+      <c r="F22" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G22" s="3" t="s">
+      <c r="G22" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="H22" s="3" t="s">
+      <c r="H22" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="I22" s="3" t="s">
+      <c r="I22" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="J22" s="3" t="s">
+      <c r="J22" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="K22" s="3" t="s">
+      <c r="K22" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="L22" s="3" t="s">
+      <c r="L22" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="M22" s="3" t="s">
+      <c r="M22" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="N22" s="3" t="s">
+      <c r="N22" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="O22" s="3" t="s">
+      <c r="O22" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A23" s="7"/>
-      <c r="B23" s="7"/>
-      <c r="C23" s="7"/>
-      <c r="D23" s="4"/>
-      <c r="E23" s="3">
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="8"/>
+      <c r="E23" s="2">
         <v>200</v>
       </c>
-      <c r="F23" s="3" t="s">
+      <c r="F23" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G23" s="3" t="s">
+      <c r="G23" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H23" s="3" t="s">
+      <c r="H23" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="I23" s="3" t="s">
+      <c r="I23" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="J23" s="3" t="s">
+      <c r="J23" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="K23" s="3" t="s">
+      <c r="K23" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="L23" s="3" t="s">
+      <c r="L23" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="M23" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N23" s="3" t="s">
+      <c r="M23" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="N23" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O23" s="3" t="s">
+      <c r="O23" s="2" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A24" s="7"/>
-      <c r="B24" s="7"/>
-      <c r="C24" s="7"/>
-      <c r="D24" s="4" t="s">
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="8" t="s">
         <v>56</v>
       </c>
-      <c r="E24" s="3">
+      <c r="E24" s="2">
         <v>100</v>
       </c>
-      <c r="F24" s="3" t="s">
+      <c r="F24" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G24" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H24" s="3" t="s">
+      <c r="G24" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H24" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I24" s="3" t="s">
+      <c r="I24" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="J24" s="3" t="s">
+      <c r="J24" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="K24" s="3" t="s">
+      <c r="K24" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="L24" s="3" t="s">
+      <c r="L24" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="M24" s="3" t="s">
+      <c r="M24" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="N24" s="3" t="s">
+      <c r="N24" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="O24" s="3" t="s">
+      <c r="O24" s="2" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A25" s="7"/>
-      <c r="B25" s="7"/>
-      <c r="C25" s="7"/>
-      <c r="D25" s="4"/>
-      <c r="E25" s="3">
+      <c r="A25" s="4"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="8"/>
+      <c r="E25" s="2">
         <v>200</v>
       </c>
-      <c r="F25" s="3" t="s">
+      <c r="F25" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G25" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H25" s="3" t="s">
+      <c r="G25" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H25" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I25" s="3" t="s">
+      <c r="I25" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="J25" s="3" t="s">
+      <c r="J25" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="K25" s="3" t="s">
+      <c r="K25" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="L25" s="3" t="s">
+      <c r="L25" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="M25" s="3" t="s">
+      <c r="M25" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="N25" s="3" t="s">
+      <c r="N25" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="O25" s="3" t="s">
+      <c r="O25" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A26" s="7"/>
-      <c r="B26" s="7"/>
-      <c r="C26" s="7"/>
-      <c r="D26" s="4" t="s">
+      <c r="A26" s="4"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="E26" s="3">
+      <c r="E26" s="2">
         <v>100</v>
       </c>
-      <c r="F26" s="3" t="s">
+      <c r="F26" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G26" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="H26" s="3" t="s">
+      <c r="G26" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H26" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="I26" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="J26" s="3" t="s">
+      <c r="I26" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J26" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="K26" s="3" t="s">
+      <c r="K26" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="L26" s="3" t="s">
+      <c r="L26" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="M26" s="3" t="s">
+      <c r="M26" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="N26" s="3" t="s">
+      <c r="N26" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="O26" s="3" t="s">
+      <c r="O26" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A27" s="7"/>
-      <c r="B27" s="7"/>
-      <c r="C27" s="7"/>
-      <c r="D27" s="4"/>
-      <c r="E27" s="3">
+      <c r="A27" s="4"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="8"/>
+      <c r="E27" s="2">
         <v>200</v>
       </c>
-      <c r="F27" s="3" t="s">
+      <c r="F27" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G27" s="3" t="s">
+      <c r="G27" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="H27" s="3" t="s">
+      <c r="H27" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I27" s="3" t="s">
+      <c r="I27" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="J27" s="3" t="s">
+      <c r="J27" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="K27" s="3" t="s">
+      <c r="K27" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="L27" s="3" t="s">
+      <c r="L27" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="M27" s="3" t="s">
+      <c r="M27" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="N27" s="3" t="s">
+      <c r="N27" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="O27" s="3" t="s">
+      <c r="O27" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="28" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A28" s="7"/>
-      <c r="B28" s="7"/>
-      <c r="C28" s="7"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="8"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="8"/>
-      <c r="H28" s="8"/>
-      <c r="I28" s="8"/>
-      <c r="J28" s="8"/>
-      <c r="K28" s="8"/>
-      <c r="L28" s="8"/>
-      <c r="M28" s="8"/>
-      <c r="N28" s="8"/>
+      <c r="A28" s="4"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="5"/>
+      <c r="F28" s="5"/>
+      <c r="G28" s="5"/>
+      <c r="H28" s="5"/>
+      <c r="I28" s="5"/>
+      <c r="J28" s="5"/>
+      <c r="K28" s="5"/>
+      <c r="L28" s="5"/>
+      <c r="M28" s="5"/>
+      <c r="N28" s="5"/>
     </row>
     <row r="29" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A29" s="7"/>
-      <c r="B29" s="7"/>
-      <c r="C29" s="7"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="8"/>
-      <c r="F29" s="8"/>
-      <c r="G29" s="8"/>
-      <c r="H29" s="8"/>
-      <c r="I29" s="8"/>
-      <c r="J29" s="8"/>
-      <c r="K29" s="8"/>
-      <c r="L29" s="8"/>
-      <c r="M29" s="8"/>
-      <c r="N29" s="8"/>
+      <c r="A29" s="4"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="5"/>
+      <c r="F29" s="5"/>
+      <c r="G29" s="5"/>
+      <c r="H29" s="5"/>
+      <c r="I29" s="5"/>
+      <c r="J29" s="5"/>
+      <c r="K29" s="5"/>
+      <c r="L29" s="5"/>
+      <c r="M29" s="5"/>
+      <c r="N29" s="5"/>
     </row>
     <row r="30" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A30" s="7"/>
-      <c r="B30" s="7"/>
-      <c r="C30" s="7"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="8"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="8"/>
-      <c r="H30" s="8"/>
-      <c r="I30" s="8"/>
-      <c r="J30" s="8"/>
-      <c r="K30" s="8"/>
-      <c r="L30" s="8"/>
-      <c r="M30" s="8"/>
-      <c r="N30" s="8"/>
+      <c r="A30" s="4"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="5"/>
+      <c r="F30" s="5"/>
+      <c r="G30" s="5"/>
+      <c r="H30" s="5"/>
+      <c r="I30" s="5"/>
+      <c r="J30" s="5"/>
+      <c r="K30" s="5"/>
+      <c r="L30" s="5"/>
+      <c r="M30" s="5"/>
+      <c r="N30" s="5"/>
     </row>
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A31" s="7"/>
-      <c r="B31" s="7"/>
-      <c r="C31" s="7"/>
-      <c r="D31" s="5" t="s">
+      <c r="A31" s="4"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="9" t="s">
         <v>67</v>
       </c>
-      <c r="E31" s="14"/>
-      <c r="F31" s="14"/>
-      <c r="G31" s="14"/>
-      <c r="H31" s="14"/>
-      <c r="I31" s="14"/>
-      <c r="J31" s="14"/>
-      <c r="K31" s="14"/>
-      <c r="L31" s="14"/>
-      <c r="M31" s="14"/>
-      <c r="N31" s="14"/>
-      <c r="O31" s="6"/>
+      <c r="E31" s="10"/>
+      <c r="F31" s="10"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="10"/>
+      <c r="I31" s="10"/>
+      <c r="J31" s="10"/>
+      <c r="K31" s="10"/>
+      <c r="L31" s="10"/>
+      <c r="M31" s="10"/>
+      <c r="N31" s="10"/>
+      <c r="O31" s="11"/>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A32" s="7"/>
-      <c r="B32" s="7"/>
-      <c r="C32" s="7"/>
+      <c r="A32" s="4"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
       <c r="D32" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E32" s="3" t="s">
+      <c r="E32" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="F32" s="5" t="s">
+      <c r="F32" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="G32" s="6"/>
-      <c r="H32" s="5" t="s">
+      <c r="G32" s="11"/>
+      <c r="H32" s="9" t="s">
         <v>41</v>
       </c>
-      <c r="I32" s="6"/>
-      <c r="J32" s="5" t="s">
+      <c r="I32" s="11"/>
+      <c r="J32" s="9" t="s">
         <v>42</v>
       </c>
-      <c r="K32" s="6"/>
-      <c r="L32" s="5" t="s">
+      <c r="K32" s="11"/>
+      <c r="L32" s="9" t="s">
         <v>43</v>
       </c>
-      <c r="M32" s="6"/>
-      <c r="N32" s="5" t="s">
+      <c r="M32" s="11"/>
+      <c r="N32" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="O32" s="6"/>
+      <c r="O32" s="11"/>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A33" s="7"/>
-      <c r="B33" s="7"/>
-      <c r="C33" s="7"/>
-      <c r="D33" s="12" t="s">
+      <c r="A33" s="4"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="13" t="s">
         <v>46</v>
       </c>
-      <c r="E33" s="3" t="s">
+      <c r="E33" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="F33" s="3" t="s">
+      <c r="F33" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G33" s="3" t="s">
+      <c r="G33" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H33" s="3" t="s">
+      <c r="H33" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="I33" s="3" t="s">
+      <c r="I33" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="J33" s="3" t="s">
+      <c r="J33" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="K33" s="3" t="s">
+      <c r="K33" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="L33" s="3" t="s">
+      <c r="L33" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="M33" s="3" t="s">
+      <c r="M33" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="N33" s="3" t="s">
+      <c r="N33" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="O33" s="3" t="s">
+      <c r="O33" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A34" s="7"/>
-      <c r="B34" s="7"/>
-      <c r="C34" s="7"/>
-      <c r="D34" s="13"/>
-      <c r="E34" s="3" t="s">
+      <c r="A34" s="4"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="14"/>
+      <c r="E34" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="F34" s="3" t="s">
+      <c r="F34" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G34" s="3" t="s">
+      <c r="G34" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H34" s="3" t="s">
+      <c r="H34" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="I34" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J34" s="3" t="s">
+      <c r="I34" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J34" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="K34" s="3" t="s">
+      <c r="K34" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="L34" s="3" t="s">
+      <c r="L34" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="M34" s="3" t="s">
+      <c r="M34" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N34" s="3" t="s">
+      <c r="N34" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="O34" s="3" t="s">
+      <c r="O34" s="2" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A35" s="7"/>
-      <c r="B35" s="7"/>
-      <c r="C35" s="7"/>
-      <c r="D35" s="12" t="s">
+      <c r="A35" s="4"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="13" t="s">
         <v>47</v>
       </c>
-      <c r="E35" s="3" t="s">
+      <c r="E35" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="F35" s="3" t="s">
+      <c r="F35" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G35" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H35" s="3" t="s">
+      <c r="G35" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H35" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I35" s="3" t="s">
+      <c r="I35" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="J35" s="3" t="s">
+      <c r="J35" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="K35" s="3" t="s">
+      <c r="K35" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="L35" s="3" t="s">
+      <c r="L35" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="M35" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N35" s="3" t="s">
+      <c r="M35" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="N35" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="O35" s="3" t="s">
+      <c r="O35" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A36" s="7"/>
-      <c r="B36" s="7"/>
-      <c r="C36" s="7"/>
-      <c r="D36" s="13"/>
-      <c r="E36" s="3" t="s">
+      <c r="A36" s="4"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="14"/>
+      <c r="E36" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="F36" s="3" t="s">
+      <c r="F36" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G36" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H36" s="3" t="s">
+      <c r="G36" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H36" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I36" s="3" t="s">
+      <c r="I36" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J36" s="3" t="s">
+      <c r="J36" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="K36" s="3" t="s">
+      <c r="K36" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="L36" s="3" t="s">
+      <c r="L36" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="M36" s="3" t="s">
+      <c r="M36" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="N36" s="3" t="s">
+      <c r="N36" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="O36" s="3" t="s">
+      <c r="O36" s="2" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A37" s="7"/>
-      <c r="B37" s="7"/>
-      <c r="C37" s="7"/>
-      <c r="D37" s="12" t="s">
+      <c r="A37" s="4"/>
+      <c r="B37" s="4"/>
+      <c r="C37" s="4"/>
+      <c r="D37" s="13" t="s">
         <v>48</v>
       </c>
-      <c r="E37" s="3" t="s">
+      <c r="E37" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="F37" s="3" t="s">
+      <c r="F37" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G37" s="3" t="s">
+      <c r="G37" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H37" s="3" t="s">
+      <c r="H37" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I37" s="3" t="s">
+      <c r="I37" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="J37" s="3" t="s">
+      <c r="J37" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="K37" s="3" t="s">
+      <c r="K37" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="L37" s="3" t="s">
+      <c r="L37" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M37" s="3" t="s">
+      <c r="M37" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N37" s="3" t="s">
+      <c r="N37" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="O37" s="3" t="s">
+      <c r="O37" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A38" s="7"/>
-      <c r="B38" s="7"/>
-      <c r="C38" s="7"/>
-      <c r="D38" s="13"/>
-      <c r="E38" s="3" t="s">
+      <c r="A38" s="4"/>
+      <c r="B38" s="4"/>
+      <c r="C38" s="4"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="F38" s="3" t="s">
+      <c r="F38" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="G38" s="3" t="s">
+      <c r="G38" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H38" s="3" t="s">
+      <c r="H38" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I38" s="3" t="s">
+      <c r="I38" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="J38" s="3" t="s">
+      <c r="J38" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="K38" s="3" t="s">
+      <c r="K38" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="L38" s="3" t="s">
+      <c r="L38" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="M38" s="3" t="s">
+      <c r="M38" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="N38" s="3" t="s">
+      <c r="N38" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="O38" s="3" t="s">
+      <c r="O38" s="2" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A39" s="7"/>
-      <c r="B39" s="7"/>
-      <c r="C39" s="7"/>
-      <c r="D39" s="12" t="s">
+      <c r="A39" s="4"/>
+      <c r="B39" s="4"/>
+      <c r="C39" s="4"/>
+      <c r="D39" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="E39" s="3" t="s">
+      <c r="E39" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="F39" s="3" t="s">
+      <c r="F39" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="G39" s="3" t="s">
+      <c r="G39" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="H39" s="3" t="s">
+      <c r="H39" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="I39" s="3" t="s">
+      <c r="I39" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="J39" s="3" t="s">
+      <c r="J39" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="K39" s="3" t="s">
+      <c r="K39" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="L39" s="3" t="s">
+      <c r="L39" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="M39" s="3" t="s">
+      <c r="M39" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="N39" s="3" t="s">
+      <c r="N39" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="O39" s="3" t="s">
+      <c r="O39" s="2" t="s">
         <v>18</v>
       </c>
     </row>
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A40" s="7"/>
-      <c r="B40" s="7"/>
-      <c r="C40" s="7"/>
-      <c r="D40" s="13"/>
-      <c r="E40" s="11" t="s">
+      <c r="A40" s="4"/>
+      <c r="B40" s="4"/>
+      <c r="C40" s="4"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="F40" s="11" t="s">
+      <c r="F40" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="G40" s="11" t="s">
+      <c r="G40" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="H40" s="11" t="s">
+      <c r="H40" s="7" t="s">
         <v>58</v>
       </c>
-      <c r="I40" s="11" t="s">
+      <c r="I40" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="J40" s="11" t="s">
+      <c r="J40" s="7" t="s">
         <v>0</v>
       </c>
-      <c r="K40" s="11" t="s">
+      <c r="K40" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="L40" s="11" t="s">
+      <c r="L40" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="M40" s="11" t="s">
+      <c r="M40" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="N40" s="3" t="s">
+      <c r="N40" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="O40" s="3" t="s">
+      <c r="O40" s="2" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A41" s="7"/>
-      <c r="B41" s="7"/>
-      <c r="C41" s="7"/>
-      <c r="D41" s="12" t="s">
+      <c r="A41" s="4"/>
+      <c r="B41" s="4"/>
+      <c r="C41" s="4"/>
+      <c r="D41" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="E41" s="3" t="s">
+      <c r="E41" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="F41" s="3" t="s">
+      <c r="F41" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="G41" s="3" t="s">
+      <c r="G41" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="H41" s="3" t="s">
+      <c r="H41" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I41" s="3" t="s">
+      <c r="I41" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="J41" s="3" t="s">
+      <c r="J41" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="K41" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="L41" s="3" t="s">
+      <c r="K41" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L41" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="M41" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="N41" s="3" t="s">
+      <c r="M41" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="N41" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="O41" s="3" t="s">
+      <c r="O41" s="2" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A42" s="7"/>
-      <c r="B42" s="7"/>
-      <c r="C42" s="7"/>
-      <c r="D42" s="13"/>
-      <c r="E42" s="11" t="s">
+      <c r="A42" s="4"/>
+      <c r="B42" s="4"/>
+      <c r="C42" s="4"/>
+      <c r="D42" s="14"/>
+      <c r="E42" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="F42" s="3" t="s">
+      <c r="F42" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="G42" s="3" t="s">
+      <c r="G42" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H42" s="3" t="s">
+      <c r="H42" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="I42" s="3" t="s">
+      <c r="I42" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="J42" s="3" t="s">
+      <c r="J42" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="K42" s="3" t="s">
+      <c r="K42" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="L42" s="3" t="s">
+      <c r="L42" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="M42" s="3" t="s">
+      <c r="M42" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N42" s="3" t="s">
+      <c r="N42" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="O42" s="3" t="s">
+      <c r="O42" s="2" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A43" s="7"/>
-      <c r="B43" s="7"/>
-      <c r="C43" s="7"/>
-      <c r="D43" s="12" t="s">
+      <c r="A43" s="4"/>
+      <c r="B43" s="4"/>
+      <c r="C43" s="4"/>
+      <c r="D43" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="E43" s="3" t="s">
+      <c r="E43" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="F43" s="3" t="s">
+      <c r="F43" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H43" s="3" t="s">
+      <c r="G43" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H43" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I43" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J43" s="3" t="s">
+      <c r="I43" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J43" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="K43" s="3" t="s">
+      <c r="K43" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="L43" s="3" t="s">
+      <c r="L43" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="M43" s="3" t="s">
+      <c r="M43" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="N43" s="3" t="s">
+      <c r="N43" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O43" s="3" t="s">
+      <c r="O43" s="2" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A44" s="7"/>
-      <c r="B44" s="7"/>
-      <c r="C44" s="7"/>
-      <c r="D44" s="13"/>
-      <c r="E44" s="11" t="s">
+      <c r="A44" s="4"/>
+      <c r="B44" s="4"/>
+      <c r="C44" s="4"/>
+      <c r="D44" s="14"/>
+      <c r="E44" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="F44" s="3" t="s">
+      <c r="F44" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G44" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="H44" s="3" t="s">
+      <c r="G44" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H44" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="I44" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="J44" s="3" t="s">
+      <c r="I44" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J44" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="K44" s="3" t="s">
+      <c r="K44" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="L44" s="3" t="s">
+      <c r="L44" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="M44" s="3" t="s">
+      <c r="M44" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="N44" s="3" t="s">
+      <c r="N44" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="O44" s="3" t="s">
+      <c r="O44" s="2" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="45" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A45" s="7"/>
-      <c r="B45" s="7"/>
-      <c r="C45" s="7"/>
-      <c r="D45" s="12" t="s">
+      <c r="A45" s="4"/>
+      <c r="B45" s="4"/>
+      <c r="C45" s="4"/>
+      <c r="D45" s="13" t="s">
         <v>52</v>
       </c>
-      <c r="E45" s="3" t="s">
+      <c r="E45" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="F45" s="3" t="s">
+      <c r="F45" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H45" s="3" t="s">
+      <c r="G45" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H45" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I45" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J45" s="3" t="s">
+      <c r="I45" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J45" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="K45" s="3" t="s">
+      <c r="K45" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="L45" s="3" t="s">
+      <c r="L45" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="M45" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="N45" s="3" t="s">
+      <c r="M45" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="N45" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="O45" s="3" t="s">
+      <c r="O45" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="46" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A46" s="7"/>
-      <c r="B46" s="7"/>
-      <c r="C46" s="7"/>
-      <c r="D46" s="13"/>
-      <c r="E46" s="11" t="s">
+      <c r="A46" s="4"/>
+      <c r="B46" s="4"/>
+      <c r="C46" s="4"/>
+      <c r="D46" s="14"/>
+      <c r="E46" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="F46" s="3" t="s">
+      <c r="F46" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="G46" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="H46" s="3" t="s">
+      <c r="G46" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H46" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I46" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="J46" s="3" t="s">
+      <c r="I46" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J46" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="K46" s="3" t="s">
+      <c r="K46" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="L46" s="3" t="s">
+      <c r="L46" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="M46" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N46" s="3" t="s">
+      <c r="M46" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="N46" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="O46" s="3" t="s">
+      <c r="O46" s="2" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="47" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A47" s="7"/>
-      <c r="B47" s="7"/>
-      <c r="C47" s="7"/>
-      <c r="D47" s="12" t="s">
+      <c r="A47" s="4"/>
+      <c r="B47" s="4"/>
+      <c r="C47" s="4"/>
+      <c r="D47" s="13" t="s">
         <v>53</v>
       </c>
-      <c r="E47" s="3" t="s">
+      <c r="E47" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="F47" s="3" t="s">
+      <c r="F47" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H47" s="3" t="s">
+      <c r="G47" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H47" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="I47" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J47" s="3" t="s">
+      <c r="I47" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J47" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="K47" s="3" t="s">
+      <c r="K47" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="L47" s="3" t="s">
+      <c r="L47" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="M47" s="3" t="s">
+      <c r="M47" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="N47" s="3" t="s">
+      <c r="N47" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="O47" s="3" t="s">
+      <c r="O47" s="2" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="48" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A48" s="7"/>
-      <c r="B48" s="7"/>
-      <c r="C48" s="7"/>
-      <c r="D48" s="13"/>
-      <c r="E48" s="11" t="s">
+      <c r="A48" s="4"/>
+      <c r="B48" s="4"/>
+      <c r="C48" s="4"/>
+      <c r="D48" s="14"/>
+      <c r="E48" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="F48" s="3" t="s">
+      <c r="F48" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G48" s="3" t="s">
+      <c r="G48" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H48" s="3" t="s">
+      <c r="H48" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="I48" s="3" t="s">
+      <c r="I48" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="J48" s="3" t="s">
+      <c r="J48" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="K48" s="3" t="s">
+      <c r="K48" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="L48" s="3" t="s">
+      <c r="L48" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="M48" s="3" t="s">
+      <c r="M48" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="N48" s="3" t="s">
+      <c r="N48" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="O48" s="3" t="s">
+      <c r="O48" s="2" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="49" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A49" s="7"/>
-      <c r="B49" s="7"/>
-      <c r="C49" s="7"/>
-      <c r="D49" s="12" t="s">
+      <c r="A49" s="4"/>
+      <c r="B49" s="4"/>
+      <c r="C49" s="4"/>
+      <c r="D49" s="13" t="s">
         <v>54</v>
       </c>
-      <c r="E49" s="3" t="s">
+      <c r="E49" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="F49" s="3" t="s">
+      <c r="F49" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="G49" s="3" t="s">
+      <c r="G49" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H49" s="3" t="s">
+      <c r="H49" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="I49" s="3" t="s">
+      <c r="I49" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="J49" s="3" t="s">
+      <c r="J49" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="K49" s="3" t="s">
+      <c r="K49" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="L49" s="3" t="s">
+      <c r="L49" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="M49" s="3" t="s">
+      <c r="M49" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="N49" s="3" t="s">
+      <c r="N49" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="O49" s="3" t="s">
+      <c r="O49" s="2" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="50" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A50" s="7"/>
-      <c r="B50" s="7"/>
-      <c r="C50" s="7"/>
-      <c r="D50" s="13"/>
-      <c r="E50" s="11" t="s">
+      <c r="A50" s="4"/>
+      <c r="B50" s="4"/>
+      <c r="C50" s="4"/>
+      <c r="D50" s="14"/>
+      <c r="E50" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="F50" s="3" t="s">
+      <c r="F50" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G50" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H50" s="3" t="s">
+      <c r="G50" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H50" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="I50" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="J50" s="3" t="s">
+      <c r="I50" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J50" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="K50" s="3" t="s">
+      <c r="K50" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="L50" s="3" t="s">
+      <c r="L50" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="M50" s="3" t="s">
+      <c r="M50" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="N50" s="3" t="s">
+      <c r="N50" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="O50" s="3" t="s">
+      <c r="O50" s="2" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="51" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A51" s="7"/>
-      <c r="B51" s="7"/>
-      <c r="C51" s="7"/>
-      <c r="D51" s="12" t="s">
+      <c r="A51" s="4"/>
+      <c r="B51" s="4"/>
+      <c r="C51" s="4"/>
+      <c r="D51" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="E51" s="3" t="s">
+      <c r="E51" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="F51" s="3" t="s">
+      <c r="F51" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G51" s="3" t="s">
+      <c r="G51" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H51" s="3" t="s">
+      <c r="H51" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="I51" s="3" t="s">
+      <c r="I51" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="J51" s="3" t="s">
+      <c r="J51" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="K51" s="3" t="s">
+      <c r="K51" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="L51" s="3" t="s">
+      <c r="L51" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="M51" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N51" s="3" t="s">
+      <c r="M51" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="N51" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O51" s="3" t="s">
+      <c r="O51" s="2" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="D52" s="13"/>
-      <c r="E52" s="11" t="s">
+      <c r="D52" s="14"/>
+      <c r="E52" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="F52" s="3" t="s">
+      <c r="F52" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G52" s="3" t="s">
+      <c r="G52" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H52" s="3" t="s">
+      <c r="H52" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="I52" s="3" t="s">
+      <c r="I52" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="J52" s="3" t="s">
+      <c r="J52" s="2" t="s">
         <v>74</v>
       </c>
-      <c r="K52" s="3" t="s">
+      <c r="K52" s="2" t="s">
         <v>75</v>
       </c>
-      <c r="L52" s="3" t="s">
+      <c r="L52" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="M52" s="3" t="s">
+      <c r="M52" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="N52" s="3" t="s">
+      <c r="N52" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="O52" s="3" t="s">
+      <c r="O52" s="2" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="D53" s="12" t="s">
+      <c r="D53" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="E53" s="3" t="s">
+      <c r="E53" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="F53" s="3" t="s">
+      <c r="F53" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G53" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H53" s="3" t="s">
+      <c r="G53" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H53" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I53" s="3" t="s">
+      <c r="I53" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="J53" s="3" t="s">
+      <c r="J53" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="K53" s="3" t="s">
+      <c r="K53" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="L53" s="3" t="s">
+      <c r="L53" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="M53" s="3" t="s">
+      <c r="M53" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="N53" s="3" t="s">
+      <c r="N53" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="O53" s="3" t="s">
+      <c r="O53" s="2" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="D54" s="13"/>
-      <c r="E54" s="11" t="s">
+      <c r="D54" s="14"/>
+      <c r="E54" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="F54" s="3" t="s">
+      <c r="F54" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="G54" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H54" s="3" t="s">
+      <c r="G54" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H54" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="I54" s="3" t="s">
+      <c r="I54" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="J54" s="3" t="s">
+      <c r="J54" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="K54" s="3" t="s">
+      <c r="K54" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="L54" s="3" t="s">
+      <c r="L54" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="M54" s="3" t="s">
+      <c r="M54" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="N54" s="3" t="s">
+      <c r="N54" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="O54" s="3" t="s">
+      <c r="O54" s="2" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="D55" s="4" t="s">
+      <c r="D55" s="8" t="s">
         <v>57</v>
       </c>
-      <c r="E55" s="3" t="s">
+      <c r="E55" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="F55" s="3" t="s">
+      <c r="F55" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G55" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="H55" s="3" t="s">
+      <c r="G55" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H55" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="I55" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="J55" s="3" t="s">
+      <c r="I55" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J55" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="K55" s="3" t="s">
+      <c r="K55" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="L55" s="3" t="s">
+      <c r="L55" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="M55" s="3" t="s">
+      <c r="M55" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="N55" s="3" t="s">
+      <c r="N55" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="O55" s="3" t="s">
+      <c r="O55" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="D56" s="4"/>
-      <c r="E56" s="11" t="s">
+      <c r="D56" s="8"/>
+      <c r="E56" s="7" t="s">
         <v>69</v>
       </c>
-      <c r="F56" s="3" t="s">
+      <c r="F56" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G56" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H56" s="3" t="s">
+      <c r="G56" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H56" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="I56" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J56" s="3" t="s">
+      <c r="I56" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J56" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="K56" s="3" t="s">
+      <c r="K56" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="L56" s="3" t="s">
+      <c r="L56" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="M56" s="3" t="s">
+      <c r="M56" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="N56" s="3" t="s">
+      <c r="N56" s="2" t="s">
         <v>78</v>
       </c>
-      <c r="O56" s="3" t="s">
+      <c r="O56" s="2" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="D60" s="10" t="s">
+      <c r="D60" s="15" t="s">
         <v>113</v>
       </c>
-      <c r="E60" s="10"/>
-      <c r="F60" s="10"/>
-      <c r="G60" s="10"/>
-      <c r="H60" s="10"/>
-      <c r="I60" s="10"/>
-      <c r="J60" s="10"/>
-      <c r="K60" s="10"/>
-      <c r="L60" s="10"/>
-      <c r="M60" s="10"/>
-      <c r="N60" s="10"/>
-      <c r="O60" s="10"/>
+      <c r="E60" s="15"/>
+      <c r="F60" s="15"/>
+      <c r="G60" s="15"/>
+      <c r="H60" s="15"/>
+      <c r="I60" s="15"/>
+      <c r="J60" s="15"/>
+      <c r="K60" s="15"/>
+      <c r="L60" s="15"/>
+      <c r="M60" s="15"/>
+      <c r="N60" s="15"/>
+      <c r="O60" s="15"/>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.25">
       <c r="D61" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E61" s="3" t="s">
+      <c r="E61" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="F61" s="5" t="s">
+      <c r="F61" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="G61" s="6"/>
-      <c r="H61" s="2" t="s">
+      <c r="G61" s="11"/>
+      <c r="H61" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="I61" s="2"/>
-      <c r="J61" s="2" t="s">
+      <c r="I61" s="12"/>
+      <c r="J61" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="K61" s="2"/>
-      <c r="L61" s="2" t="s">
+      <c r="K61" s="12"/>
+      <c r="L61" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="M61" s="2"/>
-      <c r="N61" s="2" t="s">
+      <c r="M61" s="12"/>
+      <c r="N61" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="O61" s="2"/>
+      <c r="O61" s="12"/>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="D62" s="4" t="s">
+      <c r="D62" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="E62" s="3">
+      <c r="E62" s="2">
         <v>100</v>
       </c>
-      <c r="F62" s="3" t="s">
+      <c r="F62" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G62" s="3" t="s">
+      <c r="G62" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="H62" s="3" t="s">
+      <c r="H62" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="I62" s="3" t="s">
+      <c r="I62" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="J62" s="3" t="s">
+      <c r="J62" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="K62" s="3" t="s">
+      <c r="K62" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="L62" s="3" t="s">
+      <c r="L62" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="M62" s="3" t="s">
+      <c r="M62" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="N62" s="3" t="s">
+      <c r="N62" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="O62" s="3" t="s">
+      <c r="O62" s="2" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="D63" s="4"/>
-      <c r="E63" s="3">
+      <c r="D63" s="8"/>
+      <c r="E63" s="2">
         <v>200</v>
       </c>
-      <c r="F63" s="3" t="s">
+      <c r="F63" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="G63" s="3" t="s">
+      <c r="G63" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="H63" s="3" t="s">
+      <c r="H63" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="I63" s="3" t="s">
+      <c r="I63" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="J63" s="3" t="s">
+      <c r="J63" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="K63" s="3" t="s">
+      <c r="K63" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="L63" s="3" t="s">
+      <c r="L63" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="M63" s="3" t="s">
+      <c r="M63" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="N63" s="3" t="s">
+      <c r="N63" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="O63" s="3" t="s">
+      <c r="O63" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="D64" s="4" t="s">
+      <c r="D64" s="8" t="s">
         <v>80</v>
       </c>
-      <c r="E64" s="3">
+      <c r="E64" s="2">
         <v>100</v>
       </c>
-      <c r="F64" s="3" t="s">
+      <c r="F64" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="G64" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="H64" s="3" t="s">
+      <c r="G64" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H64" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="I64" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J64" s="3" t="s">
+      <c r="I64" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J64" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="K64" s="3" t="s">
+      <c r="K64" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="L64" s="3" t="s">
+      <c r="L64" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="M64" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="N64" s="3" t="s">
+      <c r="M64" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="N64" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="O64" s="3" t="s">
+      <c r="O64" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="65" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D65" s="4"/>
-      <c r="E65" s="3">
+      <c r="D65" s="8"/>
+      <c r="E65" s="2">
         <v>200</v>
       </c>
-      <c r="F65" s="3" t="s">
+      <c r="F65" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="G65" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H65" s="3" t="s">
+      <c r="G65" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H65" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="I65" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J65" s="3" t="s">
+      <c r="I65" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J65" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="K65" s="3" t="s">
+      <c r="K65" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="L65" s="3" t="s">
+      <c r="L65" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="M65" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="N65" s="3" t="s">
+      <c r="M65" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="N65" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="O65" s="3" t="s">
+      <c r="O65" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="66" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D66" s="4" t="s">
+      <c r="D66" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="E66" s="3">
+      <c r="E66" s="2">
         <v>100</v>
       </c>
-      <c r="F66" s="3" t="s">
+      <c r="F66" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="G66" s="3" t="s">
+      <c r="G66" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H66" s="3" t="s">
+      <c r="H66" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="I66" s="3" t="s">
+      <c r="I66" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="J66" s="3" t="s">
+      <c r="J66" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K66" s="3" t="s">
+      <c r="K66" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="L66" s="3" t="s">
+      <c r="L66" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="M66" s="3" t="s">
+      <c r="M66" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N66" s="3" t="s">
+      <c r="N66" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="O66" s="3" t="s">
+      <c r="O66" s="2" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="67" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D67" s="4"/>
-      <c r="E67" s="3">
+      <c r="D67" s="8"/>
+      <c r="E67" s="2">
         <v>200</v>
       </c>
-      <c r="F67" s="3" t="s">
+      <c r="F67" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="G67" s="3" t="s">
+      <c r="G67" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="H67" s="3" t="s">
+      <c r="H67" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="I67" s="3" t="s">
+      <c r="I67" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J67" s="3" t="s">
+      <c r="J67" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K67" s="3" t="s">
+      <c r="K67" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L67" s="3" t="s">
+      <c r="L67" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="M67" s="3" t="s">
+      <c r="M67" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="N67" s="3" t="s">
+      <c r="N67" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="O67" s="3" t="s">
+      <c r="O67" s="2" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="68" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D68" s="4" t="s">
+      <c r="D68" s="8" t="s">
         <v>82</v>
       </c>
-      <c r="E68" s="3">
+      <c r="E68" s="2">
         <v>100</v>
       </c>
-      <c r="F68" s="3" t="s">
+      <c r="F68" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G68" s="3" t="s">
+      <c r="G68" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H68" s="3" t="s">
+      <c r="H68" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I68" s="3" t="s">
+      <c r="I68" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="J68" s="3" t="s">
+      <c r="J68" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="K68" s="3" t="s">
+      <c r="K68" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="L68" s="3" t="s">
+      <c r="L68" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="M68" s="3" t="s">
+      <c r="M68" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N68" s="3" t="s">
+      <c r="N68" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="O68" s="3" t="s">
+      <c r="O68" s="2" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="69" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D69" s="4"/>
-      <c r="E69" s="3">
+      <c r="D69" s="8"/>
+      <c r="E69" s="2">
         <v>200</v>
       </c>
-      <c r="F69" s="3" t="s">
+      <c r="F69" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G69" s="3" t="s">
+      <c r="G69" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="H69" s="3" t="s">
+      <c r="H69" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="I69" s="3" t="s">
+      <c r="I69" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="J69" s="3" t="s">
+      <c r="J69" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="K69" s="3" t="s">
+      <c r="K69" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="L69" s="3" t="s">
+      <c r="L69" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="M69" s="3" t="s">
+      <c r="M69" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="N69" s="3" t="s">
+      <c r="N69" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="O69" s="3" t="s">
+      <c r="O69" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="70" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D70" s="4" t="s">
+      <c r="D70" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="E70" s="3">
+      <c r="E70" s="2">
         <v>100</v>
       </c>
-      <c r="F70" s="3" t="s">
+      <c r="F70" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="G70" s="3" t="s">
+      <c r="G70" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="H70" s="3" t="s">
+      <c r="H70" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="I70" s="3" t="s">
+      <c r="I70" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="J70" s="3" t="s">
+      <c r="J70" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="K70" s="3" t="s">
+      <c r="K70" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="L70" s="3" t="s">
+      <c r="L70" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="M70" s="3" t="s">
+      <c r="M70" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="N70" s="3" t="s">
+      <c r="N70" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="O70" s="3" t="s">
+      <c r="O70" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="71" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D71" s="4"/>
-      <c r="E71" s="3">
+      <c r="D71" s="8"/>
+      <c r="E71" s="2">
         <v>200</v>
       </c>
-      <c r="F71" s="3" t="s">
+      <c r="F71" s="2" t="s">
         <v>99</v>
       </c>
-      <c r="G71" s="3" t="s">
+      <c r="G71" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="H71" s="3" t="s">
+      <c r="H71" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="I71" s="3" t="s">
+      <c r="I71" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="J71" s="3" t="s">
+      <c r="J71" s="2" t="s">
         <v>100</v>
       </c>
-      <c r="K71" s="3" t="s">
+      <c r="K71" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="L71" s="3" t="s">
+      <c r="L71" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="M71" s="3" t="s">
+      <c r="M71" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="N71" s="3" t="s">
+      <c r="N71" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="O71" s="3" t="s">
+      <c r="O71" s="2" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="72" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D72" s="4" t="s">
+      <c r="D72" s="8" t="s">
         <v>84</v>
       </c>
-      <c r="E72" s="3">
+      <c r="E72" s="2">
         <v>50</v>
       </c>
-      <c r="F72" s="3" t="s">
+      <c r="F72" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="G72" s="3" t="s">
+      <c r="G72" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="H72" s="3" t="s">
+      <c r="H72" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I72" s="3" t="s">
+      <c r="I72" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="J72" s="3" t="s">
+      <c r="J72" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="K72" s="3" t="s">
+      <c r="K72" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="L72" s="3" t="s">
+      <c r="L72" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="M72" s="3" t="s">
+      <c r="M72" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="N72" s="3" t="s">
+      <c r="N72" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="O72" s="3" t="s">
+      <c r="O72" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="73" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D73" s="4"/>
-      <c r="E73" s="3">
+      <c r="D73" s="8"/>
+      <c r="E73" s="2">
         <v>100</v>
       </c>
-      <c r="F73" s="3" t="s">
+      <c r="F73" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G73" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="H73" s="3" t="s">
+      <c r="G73" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H73" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="I73" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="J73" s="3" t="s">
+      <c r="I73" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J73" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="K73" s="3" t="s">
+      <c r="K73" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L73" s="3" t="s">
+      <c r="L73" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="M73" s="3" t="s">
+      <c r="M73" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="N73" s="3" t="s">
+      <c r="N73" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="O73" s="3" t="s">
+      <c r="O73" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="74" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D74" s="4" t="s">
+      <c r="D74" s="8" t="s">
         <v>85</v>
       </c>
-      <c r="E74" s="3">
+      <c r="E74" s="2">
         <v>100</v>
       </c>
-      <c r="F74" s="3" t="s">
+      <c r="F74" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G74" s="3" t="s">
+      <c r="G74" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="H74" s="3" t="s">
+      <c r="H74" s="2" t="s">
         <v>95</v>
       </c>
-      <c r="I74" s="3" t="s">
+      <c r="I74" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="J74" s="3" t="s">
+      <c r="J74" s="2" t="s">
         <v>96</v>
       </c>
-      <c r="K74" s="3" t="s">
+      <c r="K74" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="L74" s="3" t="s">
+      <c r="L74" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="M74" s="3" t="s">
+      <c r="M74" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="N74" s="3" t="s">
+      <c r="N74" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="O74" s="3" t="s">
+      <c r="O74" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="75" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D75" s="4"/>
-      <c r="E75" s="3">
+      <c r="D75" s="8"/>
+      <c r="E75" s="2">
         <v>200</v>
       </c>
-      <c r="F75" s="3" t="s">
+      <c r="F75" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="G75" s="3" t="s">
+      <c r="G75" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="H75" s="3" t="s">
+      <c r="H75" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="I75" s="3" t="s">
+      <c r="I75" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="J75" s="3" t="s">
+      <c r="J75" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="K75" s="3" t="s">
+      <c r="K75" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="L75" s="3" t="s">
+      <c r="L75" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="M75" s="3" t="s">
+      <c r="M75" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="N75" s="3" t="s">
+      <c r="N75" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="O75" s="3" t="s">
+      <c r="O75" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="76" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D76" s="4" t="s">
+      <c r="D76" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="E76" s="3">
+      <c r="E76" s="2">
         <v>100</v>
       </c>
-      <c r="F76" s="3" t="s">
+      <c r="F76" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="G76" s="3" t="s">
+      <c r="G76" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H76" s="3" t="s">
+      <c r="H76" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="I76" s="3" t="s">
+      <c r="I76" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="J76" s="3" t="s">
+      <c r="J76" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="K76" s="3" t="s">
+      <c r="K76" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="L76" s="3" t="s">
+      <c r="L76" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="M76" s="3" t="s">
+      <c r="M76" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="N76" s="3" t="s">
+      <c r="N76" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="O76" s="3" t="s">
+      <c r="O76" s="2" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="77" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D77" s="4"/>
-      <c r="E77" s="3">
+      <c r="D77" s="8"/>
+      <c r="E77" s="2">
         <v>200</v>
       </c>
-      <c r="F77" s="3" t="s">
+      <c r="F77" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="G77" s="3" t="s">
+      <c r="G77" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="H77" s="3" t="s">
+      <c r="H77" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="I77" s="3" t="s">
+      <c r="I77" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="J77" s="3" t="s">
+      <c r="J77" s="2" t="s">
         <v>27</v>
       </c>
-      <c r="K77" s="3" t="s">
+      <c r="K77" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="L77" s="3" t="s">
+      <c r="L77" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="M77" s="3" t="s">
+      <c r="M77" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N77" s="3" t="s">
+      <c r="N77" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="O77" s="3" t="s">
+      <c r="O77" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="78" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D78" s="4" t="s">
+      <c r="D78" s="8" t="s">
         <v>87</v>
       </c>
-      <c r="E78" s="3">
+      <c r="E78" s="2">
         <v>100</v>
       </c>
-      <c r="F78" s="3" t="s">
+      <c r="F78" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="G78" s="3" t="s">
+      <c r="G78" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="H78" s="3" t="s">
+      <c r="H78" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="I78" s="3" t="s">
+      <c r="I78" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="J78" s="3" t="s">
+      <c r="J78" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="K78" s="3" t="s">
+      <c r="K78" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="L78" s="3" t="s">
+      <c r="L78" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="M78" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N78" s="3" t="s">
+      <c r="M78" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="N78" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="O78" s="3" t="s">
+      <c r="O78" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="79" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D79" s="4"/>
-      <c r="E79" s="3">
+      <c r="D79" s="8"/>
+      <c r="E79" s="2">
         <v>200</v>
       </c>
-      <c r="F79" s="3" t="s">
+      <c r="F79" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="G79" s="3" t="s">
+      <c r="G79" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="H79" s="3" t="s">
+      <c r="H79" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="I79" s="3" t="s">
+      <c r="I79" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="J79" s="3" t="s">
+      <c r="J79" s="2" t="s">
         <v>101</v>
       </c>
-      <c r="K79" s="3" t="s">
+      <c r="K79" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="L79" s="3" t="s">
+      <c r="L79" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="M79" s="3" t="s">
+      <c r="M79" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="N79" s="3" t="s">
+      <c r="N79" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="O79" s="3" t="s">
+      <c r="O79" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="80" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D80" s="4" t="s">
+      <c r="D80" s="8" t="s">
         <v>88</v>
       </c>
-      <c r="E80" s="3">
+      <c r="E80" s="2">
         <v>100</v>
       </c>
-      <c r="F80" s="3" t="s">
+      <c r="F80" s="2" t="s">
         <v>104</v>
       </c>
-      <c r="G80" s="3" t="s">
+      <c r="G80" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="H80" s="3" t="s">
+      <c r="H80" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I80" s="3" t="s">
+      <c r="I80" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="J80" s="3" t="s">
+      <c r="J80" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="K80" s="3" t="s">
+      <c r="K80" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="L80" s="3" t="s">
+      <c r="L80" s="2" t="s">
         <v>102</v>
       </c>
-      <c r="M80" s="3" t="s">
+      <c r="M80" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="N80" s="3" t="s">
+      <c r="N80" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="O80" s="3" t="s">
+      <c r="O80" s="2" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="81" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D81" s="4"/>
-      <c r="E81" s="3">
+      <c r="D81" s="8"/>
+      <c r="E81" s="2">
         <v>200</v>
       </c>
-      <c r="F81" s="3" t="s">
+      <c r="F81" s="2" t="s">
         <v>98</v>
       </c>
-      <c r="G81" s="3" t="s">
+      <c r="G81" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H81" s="3" t="s">
+      <c r="H81" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="I81" s="3" t="s">
+      <c r="I81" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="J81" s="3" t="s">
+      <c r="J81" s="2" t="s">
         <v>107</v>
       </c>
-      <c r="K81" s="3" t="s">
+      <c r="K81" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="L81" s="3" t="s">
+      <c r="L81" s="2" t="s">
         <v>97</v>
       </c>
-      <c r="M81" s="3" t="s">
+      <c r="M81" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="N81" s="3" t="s">
+      <c r="N81" s="2" t="s">
         <v>106</v>
       </c>
-      <c r="O81" s="3" t="s">
+      <c r="O81" s="2" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="82" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D82" s="4" t="s">
+      <c r="D82" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="E82" s="3">
+      <c r="E82" s="2">
         <v>100</v>
       </c>
-      <c r="F82" s="3" t="s">
+      <c r="F82" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G82" s="3" t="s">
+      <c r="G82" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H82" s="3" t="s">
+      <c r="H82" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I82" s="3" t="s">
+      <c r="I82" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="J82" s="3" t="s">
+      <c r="J82" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="K82" s="3" t="s">
+      <c r="K82" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="L82" s="3" t="s">
+      <c r="L82" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="M82" s="3" t="s">
+      <c r="M82" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="N82" s="3" t="s">
+      <c r="N82" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="O82" s="3" t="s">
+      <c r="O82" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="83" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D83" s="4"/>
-      <c r="E83" s="3">
+      <c r="D83" s="8"/>
+      <c r="E83" s="2">
         <v>200</v>
       </c>
-      <c r="F83" s="3" t="s">
+      <c r="F83" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="G83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H83" s="3" t="s">
+      <c r="G83" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H83" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="I83" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J83" s="3" t="s">
+      <c r="I83" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J83" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="K83" s="3" t="s">
+      <c r="K83" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="L83" s="3" t="s">
+      <c r="L83" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="M83" s="3" t="s">
+      <c r="M83" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="N83" s="3" t="s">
+      <c r="N83" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="O83" s="3" t="s">
+      <c r="O83" s="2" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="84" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D84" s="4" t="s">
+      <c r="D84" s="8" t="s">
         <v>90</v>
       </c>
-      <c r="E84" s="3">
+      <c r="E84" s="2">
         <v>100</v>
       </c>
-      <c r="F84" s="3" t="s">
+      <c r="F84" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="G84" s="3" t="s">
+      <c r="G84" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H84" s="3" t="s">
+      <c r="H84" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="I84" s="3" t="s">
+      <c r="I84" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="J84" s="3" t="s">
+      <c r="J84" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="K84" s="3" t="s">
+      <c r="K84" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="L84" s="3" t="s">
+      <c r="L84" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="M84" s="3" t="s">
+      <c r="M84" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="N84" s="3" t="s">
+      <c r="N84" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="O84" s="3" t="s">
+      <c r="O84" s="2" t="s">
         <v>8</v>
       </c>
     </row>
     <row r="85" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D85" s="4"/>
-      <c r="E85" s="3">
+      <c r="D85" s="8"/>
+      <c r="E85" s="2">
         <v>200</v>
       </c>
-      <c r="F85" s="3" t="s">
+      <c r="F85" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="G85" s="3" t="s">
+      <c r="G85" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H85" s="3" t="s">
+      <c r="H85" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="I85" s="3" t="s">
+      <c r="I85" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="J85" s="3" t="s">
+      <c r="J85" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="K85" s="3" t="s">
+      <c r="K85" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="L85" s="3" t="s">
+      <c r="L85" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="M85" s="3" t="s">
+      <c r="M85" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="N85" s="3" t="s">
+      <c r="N85" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="O85" s="3" t="s">
+      <c r="O85" s="2" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="86" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D86" s="4" t="s">
+      <c r="D86" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="E86" s="3">
+      <c r="E86" s="2">
         <v>50</v>
       </c>
-      <c r="F86" s="3" t="s">
+      <c r="F86" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="G86" s="3" t="s">
+      <c r="G86" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="H86" s="3" t="s">
+      <c r="H86" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="I86" s="3" t="s">
+      <c r="I86" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="J86" s="3" t="s">
+      <c r="J86" s="2" t="s">
         <v>108</v>
       </c>
-      <c r="K86" s="3" t="s">
+      <c r="K86" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="L86" s="3" t="s">
+      <c r="L86" s="2" t="s">
         <v>109</v>
       </c>
-      <c r="M86" s="3" t="s">
+      <c r="M86" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="N86" s="3" t="s">
+      <c r="N86" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="O86" s="3" t="s">
+      <c r="O86" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="87" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D87" s="4"/>
-      <c r="E87" s="3">
+      <c r="D87" s="8"/>
+      <c r="E87" s="2">
         <v>100</v>
       </c>
-      <c r="F87" s="3" t="s">
+      <c r="F87" s="2" t="s">
         <v>110</v>
       </c>
-      <c r="G87" s="3" t="s">
+      <c r="G87" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="H87" s="3" t="s">
+      <c r="H87" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="I87" s="3" t="s">
+      <c r="I87" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="J87" s="3" t="s">
+      <c r="J87" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="K87" s="3" t="s">
+      <c r="K87" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="L87" s="3" t="s">
+      <c r="L87" s="2" t="s">
         <v>105</v>
       </c>
-      <c r="M87" s="3" t="s">
+      <c r="M87" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="N87" s="3" t="s">
+      <c r="N87" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="O87" s="3" t="s">
+      <c r="O87" s="2" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="91" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D91" s="5" t="s">
+      <c r="D91" s="9" t="s">
         <v>112</v>
       </c>
-      <c r="E91" s="14"/>
-      <c r="F91" s="14"/>
-      <c r="G91" s="14"/>
-      <c r="H91" s="14"/>
-      <c r="I91" s="14"/>
-      <c r="J91" s="14"/>
-      <c r="K91" s="14"/>
-      <c r="L91" s="14"/>
-      <c r="M91" s="14"/>
-      <c r="N91" s="14"/>
-      <c r="O91" s="6"/>
+      <c r="E91" s="10"/>
+      <c r="F91" s="10"/>
+      <c r="G91" s="10"/>
+      <c r="H91" s="10"/>
+      <c r="I91" s="10"/>
+      <c r="J91" s="10"/>
+      <c r="K91" s="10"/>
+      <c r="L91" s="10"/>
+      <c r="M91" s="10"/>
+      <c r="N91" s="10"/>
+      <c r="O91" s="11"/>
     </row>
     <row r="92" spans="4:15" x14ac:dyDescent="0.25">
       <c r="D92" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E92" s="3" t="s">
+      <c r="E92" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="F92" s="2" t="s">
+      <c r="F92" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="G92" s="2"/>
-      <c r="H92" s="2" t="s">
+      <c r="G92" s="12"/>
+      <c r="H92" s="12" t="s">
         <v>41</v>
       </c>
-      <c r="I92" s="2"/>
-      <c r="J92" s="2" t="s">
+      <c r="I92" s="12"/>
+      <c r="J92" s="12" t="s">
         <v>42</v>
       </c>
-      <c r="K92" s="2"/>
-      <c r="L92" s="2" t="s">
+      <c r="K92" s="12"/>
+      <c r="L92" s="12" t="s">
         <v>43</v>
       </c>
-      <c r="M92" s="2"/>
-      <c r="N92" s="2" t="s">
+      <c r="M92" s="12"/>
+      <c r="N92" s="12" t="s">
         <v>44</v>
       </c>
-      <c r="O92" s="2"/>
+      <c r="O92" s="12"/>
     </row>
     <row r="93" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D93" s="4" t="s">
+      <c r="D93" s="8" t="s">
         <v>79</v>
       </c>
-      <c r="E93" s="3" t="s">
+      <c r="E93" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="F93" s="3" t="s">
+      <c r="F93" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="G93" s="3" t="s">
+      <c r="G93" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="H93" s="3" t="s">
+      <c r="H93" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="I93" s="3" t="s">
+      <c r="I93" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="J93" s="3" t="s">
+      <c r="J93" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="K93" s="3" t="s">
+      <c r="K93" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="L93" s="3" t="s">
+      <c r="L93" s="2" t="s">
         <v>93</v>
       </c>
-      <c r="M93" s="3" t="s">
+      <c r="M93" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="N93" s="3" t="s">
+      <c r="N93" s="2" t="s">
         <v>92</v>
       </c>
-      <c r="O93" s="3" t="s">
+      <c r="O93" s="2" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="94" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D94" s="4"/>
-      <c r="E94" s="3" t="s">
+      <c r="D94" s="8"/>
+      <c r="E94" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="F94" s="3" t="s">
+      <c r="F94" s="2" t="s">
         <v>94</v>
       </c>
-      <c r="G94" s="3" t="s">
+      <c r="G94" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H94" s="3" t="s">
+      <c r="H94" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="I94" s="3" t="s">
+      <c r="I94" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="J94" s="3" t="s">
+      <c r="J94" s="2" t="s">
         <v>19</v>
       </c>
-      <c r="K94" s="3" t="s">
+      <c r="K94" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="L94" s="3" t="s">
+      <c r="L94" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="M94" s="3" t="s">
+      <c r="M94" s="2" t="s">
         <v>18</v>
       </c>
       <c r="N94" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="O94" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="95" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D95" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="E95" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F95" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="G95" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H95" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="I95" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J95" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K95" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="O94" s="3" t="s">
+      <c r="L95" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M95" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="N95" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="O95" s="2" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="95" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D95" s="4" t="s">
-        <v>80</v>
-      </c>
-      <c r="E95" s="3" t="s">
+    <row r="96" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D96" s="8"/>
+      <c r="E96" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F96" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G96" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H96" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I96" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J96" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="K96" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="L96" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="M96" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N96" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="O96" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="97" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D97" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="E97" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F97" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="G97" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H97" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I97" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J97" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K97" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L97" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M97" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="N97" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O97" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="98" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D98" s="8"/>
+      <c r="E98" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F98" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="G98" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H98" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="I98" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J98" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="K98" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="L98" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="M98" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N98" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="O98" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="99" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D99" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="E99" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G99" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H99" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I99" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J99" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K99" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="L99" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M99" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N99" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="O99" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="100" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D100" s="8"/>
+      <c r="E100" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F100" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G100" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H100" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I100" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J100" s="2" t="s">
+        <v>14</v>
+      </c>
+      <c r="K100" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="L100" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="M100" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N100" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="O100" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="101" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D101" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="E101" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F101" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="G101" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="H101" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="I101" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="J101" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="K101" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="L101" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="M101" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="N101" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="O101" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="102" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D102" s="8"/>
+      <c r="E102" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F102" s="2" t="s">
+        <v>99</v>
+      </c>
+      <c r="G102" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H102" s="2" t="s">
+        <v>104</v>
+      </c>
+      <c r="I102" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="J102" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="K102" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="L102" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="M102" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="N102" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="O102" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="103" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D103" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="E103" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="F95" s="3" t="s">
+      <c r="F103" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="G103" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H103" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I103" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J103" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="K103" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L103" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="M103" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="N103" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="O103" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="104" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D104" s="8"/>
+      <c r="E104" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F104" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G104" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="H104" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I104" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="J104" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K104" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L104" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="M104" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="N104" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="O104" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="105" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D105" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="E105" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F105" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="G105" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="H105" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="I105" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J105" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="K105" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L105" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="M105" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N105" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="O105" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D106" s="8"/>
+      <c r="E106" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F106" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="G106" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H106" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="I106" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J106" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="K106" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L106" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="M106" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="N106" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="O106" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="107" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D107" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="E107" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F107" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="G107" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H107" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="I107" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="J107" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="K107" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L107" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="M107" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N107" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="O107" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="108" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D108" s="8"/>
+      <c r="E108" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F108" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="G108" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="H108" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="I108" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="J108" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="K108" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="L108" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="M108" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N108" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="O108" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="109" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D109" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="E109" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F109" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="G109" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H109" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I109" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J109" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="K109" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="L109" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="M109" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="N109" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="O109" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="110" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D110" s="8"/>
+      <c r="E110" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F110" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="G110" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H110" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="G95" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="H95" s="3" t="s">
+      <c r="I110" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J110" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="K110" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="L110" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="I95" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J95" s="3" t="s">
+      <c r="M110" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="N110" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="O110" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="111" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D111" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="E111" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F111" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="G111" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H111" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="I111" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J111" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="K111" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="L111" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="M111" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="N111" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="O111" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="112" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D112" s="8"/>
+      <c r="E112" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F112" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="G112" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="H112" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="I112" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J112" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K112" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="L112" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="M112" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="N112" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="O112" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="113" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D113" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="E113" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F113" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G113" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H113" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="I113" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J113" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K113" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L113" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M113" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="N113" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="O113" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="114" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D114" s="8"/>
+      <c r="E114" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F114" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G114" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="H114" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I114" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J114" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="K114" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L114" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="M114" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N114" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="O114" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="115" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D115" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="E115" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="F115" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G115" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="H115" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="I115" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J115" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="K115" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L115" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="M115" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="N115" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="O115" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="116" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D116" s="8"/>
+      <c r="E116" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="F116" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="G116" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H116" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I116" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J116" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="K95" s="3" t="s">
+      <c r="K116" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="L95" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="M95" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="N95" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="O95" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="96" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D96" s="4"/>
-      <c r="E96" s="3" t="s">
+      <c r="L116" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M116" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="N116" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="O116" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="117" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D117" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="E117" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="F117" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="G117" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="H117" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="I117" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="J117" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="K117" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="L117" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="M117" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="N117" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="O117" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="118" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D118" s="8"/>
+      <c r="E118" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="F96" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G96" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="H96" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I96" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="J96" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K96" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="L96" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="M96" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="N96" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="O96" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="97" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D97" s="4" t="s">
-        <v>81</v>
-      </c>
-      <c r="E97" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="F97" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G97" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="H97" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I97" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="J97" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="K97" s="3" t="s">
+      <c r="F118" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="G118" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="L97" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="M97" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="N97" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="O97" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="98" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D98" s="4"/>
-      <c r="E98" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="F98" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="G98" s="3" t="s">
+      <c r="H118" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="I118" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="H98" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="I98" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="J98" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="K98" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="L98" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="M98" s="3" t="s">
+      <c r="J118" s="2" t="s">
+        <v>105</v>
+      </c>
+      <c r="K118" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="L118" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="M118" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="N98" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="O98" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="99" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D99" s="4" t="s">
-        <v>82</v>
-      </c>
-      <c r="E99" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="F99" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G99" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="H99" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="I99" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J99" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="K99" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="L99" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="M99" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N99" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="O99" s="3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="100" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D100" s="4"/>
-      <c r="E100" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="F100" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G100" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H100" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="I100" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J100" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="K100" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="L100" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="M100" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="N100" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="O100" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="101" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D101" s="4" t="s">
-        <v>83</v>
-      </c>
-      <c r="E101" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="F101" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="G101" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="H101" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="I101" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="J101" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="K101" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="L101" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="M101" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="N101" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="O101" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="102" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D102" s="4"/>
-      <c r="E102" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="F102" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="G102" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H102" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="I102" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="J102" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="K102" s="3" t="s">
-        <v>34</v>
-      </c>
-      <c r="L102" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="M102" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="N102" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="O102" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="103" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D103" s="4" t="s">
-        <v>84</v>
-      </c>
-      <c r="E103" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="F103" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="G103" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="H103" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="I103" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="J103" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="K103" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L103" s="3" t="s">
-        <v>38</v>
-      </c>
-      <c r="M103" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="N103" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="O103" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="104" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D104" s="4"/>
-      <c r="E104" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="F104" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="G104" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="H104" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="I104" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="J104" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="K104" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="L104" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="M104" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="N104" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="O104" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="105" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D105" s="4" t="s">
-        <v>85</v>
-      </c>
-      <c r="E105" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="F105" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="G105" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="H105" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="I105" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J105" s="3" t="s">
-        <v>96</v>
-      </c>
-      <c r="K105" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L105" s="3" t="s">
-        <v>92</v>
-      </c>
-      <c r="M105" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="N105" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="O105" s="3" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="106" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D106" s="4"/>
-      <c r="E106" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="F106" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="G106" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H106" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="I106" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J106" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="K106" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L106" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="M106" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="N106" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="O106" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="107" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D107" s="4" t="s">
-        <v>86</v>
-      </c>
-      <c r="E107" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="F107" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="G107" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H107" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="I107" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="J107" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="K107" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="L107" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="M107" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="N107" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="O107" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="108" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D108" s="4"/>
-      <c r="E108" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="F108" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="G108" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="H108" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="I108" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="J108" s="3" t="s">
-        <v>27</v>
-      </c>
-      <c r="K108" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="L108" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="M108" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="N108" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="O108" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="109" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D109" s="4" t="s">
-        <v>87</v>
-      </c>
-      <c r="E109" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="F109" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="G109" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="H109" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="I109" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J109" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="K109" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="L109" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="M109" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N109" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="O109" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="110" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D110" s="4"/>
-      <c r="E110" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="F110" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="G110" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="H110" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="I110" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J110" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="K110" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="L110" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="M110" s="3" t="s">
-        <v>31</v>
-      </c>
-      <c r="N110" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="O110" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="111" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D111" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="E111" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="F111" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="G111" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H111" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="I111" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="J111" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="K111" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="L111" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="M111" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="N111" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="O111" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="112" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D112" s="4"/>
-      <c r="E112" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="F112" s="3" t="s">
-        <v>94</v>
-      </c>
-      <c r="G112" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="H112" s="3" t="s">
-        <v>95</v>
-      </c>
-      <c r="I112" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J112" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="K112" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="L112" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="M112" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="N112" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="O112" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="113" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D113" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="E113" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="F113" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G113" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H113" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="I113" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J113" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K113" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="L113" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="M113" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="N113" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="O113" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="114" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D114" s="4"/>
-      <c r="E114" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="F114" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="G114" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="H114" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="I114" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="J114" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="K114" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="L114" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="M114" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="N114" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="O114" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="115" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D115" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="E115" s="3" t="s">
-        <v>68</v>
-      </c>
-      <c r="F115" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="G115" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H115" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="I115" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J115" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="K115" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="L115" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="M115" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="N115" s="3" t="s">
-        <v>9</v>
-      </c>
-      <c r="O115" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="116" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D116" s="4"/>
-      <c r="E116" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="F116" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="G116" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="H116" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="I116" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J116" s="3" t="s">
-        <v>11</v>
-      </c>
-      <c r="K116" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="L116" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="M116" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="N116" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="O116" s="3" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="117" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D117" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="E117" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="F117" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="G117" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="H117" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="I117" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="J117" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="K117" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="L117" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="M117" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="N117" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="O117" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="118" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D118" s="4"/>
-      <c r="E118" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="F118" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="G118" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H118" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="I118" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="J118" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="K118" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="L118" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="M118" s="3" t="s">
-        <v>10</v>
-      </c>
       <c r="N118" s="3" t="s">
-        <v>12</v>
+        <v>78</v>
       </c>
       <c r="O118" s="3" t="s">
-        <v>12</v>
+        <v>78</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="74">
-    <mergeCell ref="D117:D118"/>
-    <mergeCell ref="D105:D106"/>
-    <mergeCell ref="D107:D108"/>
-    <mergeCell ref="D109:D110"/>
-    <mergeCell ref="D111:D112"/>
-    <mergeCell ref="D113:D114"/>
-    <mergeCell ref="D115:D116"/>
-    <mergeCell ref="D93:D94"/>
-    <mergeCell ref="D95:D96"/>
-    <mergeCell ref="D97:D98"/>
-    <mergeCell ref="D99:D100"/>
-    <mergeCell ref="D101:D102"/>
+    <mergeCell ref="D2:O2"/>
+    <mergeCell ref="D31:O31"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="F3:G3"/>
+    <mergeCell ref="H3:I3"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="L3:M3"/>
+    <mergeCell ref="N3:O3"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="N32:O32"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="D41:D42"/>
+    <mergeCell ref="D43:D44"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="D49:D50"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="D60:O60"/>
+    <mergeCell ref="F61:G61"/>
+    <mergeCell ref="H61:I61"/>
+    <mergeCell ref="J61:K61"/>
+    <mergeCell ref="L61:M61"/>
+    <mergeCell ref="N61:O61"/>
+    <mergeCell ref="D84:D85"/>
+    <mergeCell ref="D62:D63"/>
+    <mergeCell ref="D64:D65"/>
+    <mergeCell ref="D66:D67"/>
+    <mergeCell ref="D68:D69"/>
+    <mergeCell ref="D70:D71"/>
+    <mergeCell ref="D72:D73"/>
+    <mergeCell ref="D74:D75"/>
+    <mergeCell ref="D76:D77"/>
+    <mergeCell ref="D78:D79"/>
+    <mergeCell ref="D80:D81"/>
+    <mergeCell ref="D82:D83"/>
     <mergeCell ref="D103:D104"/>
     <mergeCell ref="D86:D87"/>
     <mergeCell ref="D91:O91"/>
@@ -4945,60 +4990,18 @@
     <mergeCell ref="J92:K92"/>
     <mergeCell ref="L92:M92"/>
     <mergeCell ref="N92:O92"/>
-    <mergeCell ref="D74:D75"/>
-    <mergeCell ref="D76:D77"/>
-    <mergeCell ref="D78:D79"/>
-    <mergeCell ref="D80:D81"/>
-    <mergeCell ref="D82:D83"/>
-    <mergeCell ref="D84:D85"/>
-    <mergeCell ref="D62:D63"/>
-    <mergeCell ref="D64:D65"/>
-    <mergeCell ref="D66:D67"/>
-    <mergeCell ref="D68:D69"/>
-    <mergeCell ref="D70:D71"/>
-    <mergeCell ref="D72:D73"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="D60:O60"/>
-    <mergeCell ref="F61:G61"/>
-    <mergeCell ref="H61:I61"/>
-    <mergeCell ref="J61:K61"/>
-    <mergeCell ref="L61:M61"/>
-    <mergeCell ref="N61:O61"/>
-    <mergeCell ref="D41:D42"/>
-    <mergeCell ref="D43:D44"/>
-    <mergeCell ref="D45:D46"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="L32:M32"/>
-    <mergeCell ref="N32:O32"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="D4:D5"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="F3:G3"/>
-    <mergeCell ref="H3:I3"/>
-    <mergeCell ref="J3:K3"/>
-    <mergeCell ref="L3:M3"/>
-    <mergeCell ref="N3:O3"/>
-    <mergeCell ref="D2:O2"/>
-    <mergeCell ref="D31:O31"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="D93:D94"/>
+    <mergeCell ref="D95:D96"/>
+    <mergeCell ref="D97:D98"/>
+    <mergeCell ref="D99:D100"/>
+    <mergeCell ref="D101:D102"/>
+    <mergeCell ref="D117:D118"/>
+    <mergeCell ref="D105:D106"/>
+    <mergeCell ref="D107:D108"/>
+    <mergeCell ref="D109:D110"/>
+    <mergeCell ref="D111:D112"/>
+    <mergeCell ref="D113:D114"/>
+    <mergeCell ref="D115:D116"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Avaliação/Tabelas.xlsx
+++ b/Avaliação/Tabelas.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1132" uniqueCount="117">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1940" uniqueCount="133">
   <si>
     <t>0.80</t>
   </si>
@@ -367,6 +367,54 @@
   </si>
   <si>
     <t>0.63</t>
+  </si>
+  <si>
+    <t>Number</t>
+  </si>
+  <si>
+    <t>0.64</t>
+  </si>
+  <si>
+    <t>0.59</t>
+  </si>
+  <si>
+    <t>0.41</t>
+  </si>
+  <si>
+    <t>0.27</t>
+  </si>
+  <si>
+    <t>0.40</t>
+  </si>
+  <si>
+    <t>0.69</t>
+  </si>
+  <si>
+    <t>CNN - Bases Desbalanceadas</t>
+  </si>
+  <si>
+    <t>CNN - Bases Balanceadas</t>
+  </si>
+  <si>
+    <t>ENN - Bases Desbalanceadas</t>
+  </si>
+  <si>
+    <t>ENN - Bases Balanceadas</t>
+  </si>
+  <si>
+    <t>0.18</t>
+  </si>
+  <si>
+    <t>RENN - Bases Desbalanceadas</t>
+  </si>
+  <si>
+    <t>RENN - Bases Balanceadas</t>
+  </si>
+  <si>
+    <t>SGP - Bases Balanceadas</t>
+  </si>
+  <si>
+    <t>SGP - Bases Desbalanceadas</t>
   </si>
 </sst>
 </file>
@@ -398,7 +446,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="7">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -474,11 +522,22 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
-      <right/>
-      <top style="thin">
+      <right style="thin">
         <color indexed="64"/>
-      </top>
+      </right>
+      <top/>
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
@@ -488,7 +547,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -510,17 +569,32 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -528,8 +602,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -832,15 +909,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:O118"/>
+  <dimension ref="A1:O258"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D76" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="N120" sqref="N120"/>
+    <sheetView tabSelected="1" topLeftCell="B227" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="H241" sqref="H241"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="3.85546875" customWidth="1"/>
+    <col min="1" max="1" width="8.42578125" customWidth="1"/>
+    <col min="2" max="2" width="16.42578125" customWidth="1"/>
+    <col min="3" max="3" width="10.42578125" customWidth="1"/>
     <col min="4" max="4" width="20.5703125" customWidth="1"/>
     <col min="5" max="5" width="12" customWidth="1"/>
   </cols>
@@ -864,58 +943,62 @@
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" s="4"/>
       <c r="B2" s="4"/>
-      <c r="C2" s="4"/>
-      <c r="D2" s="15" t="s">
+      <c r="C2" s="17" t="s">
         <v>66</v>
       </c>
-      <c r="E2" s="15"/>
-      <c r="F2" s="15"/>
-      <c r="G2" s="15"/>
-      <c r="H2" s="15"/>
-      <c r="I2" s="15"/>
-      <c r="J2" s="15"/>
-      <c r="K2" s="15"/>
-      <c r="L2" s="15"/>
-      <c r="M2" s="15"/>
-      <c r="N2" s="15"/>
-      <c r="O2" s="15"/>
+      <c r="D2" s="17"/>
+      <c r="E2" s="17"/>
+      <c r="F2" s="17"/>
+      <c r="G2" s="17"/>
+      <c r="H2" s="17"/>
+      <c r="I2" s="17"/>
+      <c r="J2" s="17"/>
+      <c r="K2" s="17"/>
+      <c r="L2" s="17"/>
+      <c r="M2" s="17"/>
+      <c r="N2" s="17"/>
+      <c r="O2" s="17"/>
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
-      <c r="C3" s="4"/>
-      <c r="D3" s="1" t="s">
+      <c r="C3" s="9" t="s">
+        <v>117</v>
+      </c>
+      <c r="D3" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="E3" s="2" t="s">
+      <c r="E3" s="10" t="s">
         <v>65</v>
       </c>
-      <c r="F3" s="9" t="s">
+      <c r="F3" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="G3" s="11"/>
-      <c r="H3" s="12" t="s">
+      <c r="G3" s="14"/>
+      <c r="H3" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12" t="s">
+      <c r="I3" s="15"/>
+      <c r="J3" s="15" t="s">
         <v>42</v>
       </c>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12" t="s">
+      <c r="K3" s="15"/>
+      <c r="L3" s="15" t="s">
         <v>43</v>
       </c>
-      <c r="M3" s="12"/>
-      <c r="N3" s="12" t="s">
+      <c r="M3" s="15"/>
+      <c r="N3" s="15" t="s">
         <v>44</v>
       </c>
-      <c r="O3" s="12"/>
+      <c r="O3" s="15"/>
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" s="4"/>
       <c r="B4" s="4"/>
-      <c r="C4" s="4"/>
-      <c r="D4" s="8" t="s">
+      <c r="C4" s="16">
+        <v>1</v>
+      </c>
+      <c r="D4" s="16" t="s">
         <v>46</v>
       </c>
       <c r="E4" s="2">
@@ -955,8 +1038,8 @@
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
       <c r="B5" s="4"/>
-      <c r="C5" s="4"/>
-      <c r="D5" s="8"/>
+      <c r="C5" s="16"/>
+      <c r="D5" s="16"/>
       <c r="E5" s="2">
         <v>200</v>
       </c>
@@ -994,8 +1077,10 @@
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" s="4"/>
       <c r="B6" s="4"/>
-      <c r="C6" s="4"/>
-      <c r="D6" s="8" t="s">
+      <c r="C6" s="16">
+        <v>2</v>
+      </c>
+      <c r="D6" s="16" t="s">
         <v>47</v>
       </c>
       <c r="E6" s="2">
@@ -1035,8 +1120,8 @@
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" s="4"/>
       <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
-      <c r="D7" s="8"/>
+      <c r="C7" s="16"/>
+      <c r="D7" s="16"/>
       <c r="E7" s="2">
         <v>200</v>
       </c>
@@ -1074,8 +1159,10 @@
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" s="4"/>
       <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
-      <c r="D8" s="8" t="s">
+      <c r="C8" s="16">
+        <v>3</v>
+      </c>
+      <c r="D8" s="16" t="s">
         <v>48</v>
       </c>
       <c r="E8" s="2">
@@ -1115,8 +1202,8 @@
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" s="4"/>
       <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
-      <c r="D9" s="8"/>
+      <c r="C9" s="16"/>
+      <c r="D9" s="16"/>
       <c r="E9" s="2">
         <v>200</v>
       </c>
@@ -1154,8 +1241,10 @@
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" s="4"/>
       <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="8" t="s">
+      <c r="C10" s="16">
+        <v>4</v>
+      </c>
+      <c r="D10" s="16" t="s">
         <v>49</v>
       </c>
       <c r="E10" s="2">
@@ -1195,8 +1284,8 @@
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" s="4"/>
       <c r="B11" s="4"/>
-      <c r="C11" s="4"/>
-      <c r="D11" s="8"/>
+      <c r="C11" s="16"/>
+      <c r="D11" s="16"/>
       <c r="E11" s="2">
         <v>200</v>
       </c>
@@ -1234,8 +1323,10 @@
     <row r="12" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
       <c r="B12" s="4"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="8" t="s">
+      <c r="C12" s="16">
+        <v>5</v>
+      </c>
+      <c r="D12" s="16" t="s">
         <v>50</v>
       </c>
       <c r="E12" s="2">
@@ -1275,8 +1366,8 @@
     <row r="13" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A13" s="4"/>
       <c r="B13" s="4"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="8"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
       <c r="E13" s="2">
         <v>200</v>
       </c>
@@ -1314,8 +1405,10 @@
     <row r="14" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A14" s="4"/>
       <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="8" t="s">
+      <c r="C14" s="16">
+        <v>6</v>
+      </c>
+      <c r="D14" s="16" t="s">
         <v>51</v>
       </c>
       <c r="E14" s="2">
@@ -1355,8 +1448,8 @@
     <row r="15" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A15" s="4"/>
       <c r="B15" s="4"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="8"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
       <c r="E15" s="2">
         <v>200</v>
       </c>
@@ -1394,8 +1487,10 @@
     <row r="16" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A16" s="4"/>
       <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="8" t="s">
+      <c r="C16" s="16">
+        <v>7</v>
+      </c>
+      <c r="D16" s="16" t="s">
         <v>52</v>
       </c>
       <c r="E16" s="2">
@@ -1435,8 +1530,8 @@
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="4"/>
       <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="8"/>
+      <c r="C17" s="16"/>
+      <c r="D17" s="16"/>
       <c r="E17" s="2">
         <v>200</v>
       </c>
@@ -1474,8 +1569,10 @@
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
       <c r="B18" s="4"/>
-      <c r="C18" s="4"/>
-      <c r="D18" s="8" t="s">
+      <c r="C18" s="16">
+        <v>8</v>
+      </c>
+      <c r="D18" s="16" t="s">
         <v>53</v>
       </c>
       <c r="E18" s="2">
@@ -1515,8 +1612,8 @@
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
       <c r="B19" s="4"/>
-      <c r="C19" s="4"/>
-      <c r="D19" s="8"/>
+      <c r="C19" s="16"/>
+      <c r="D19" s="16"/>
       <c r="E19" s="2">
         <v>200</v>
       </c>
@@ -1554,8 +1651,10 @@
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
       <c r="B20" s="4"/>
-      <c r="C20" s="4"/>
-      <c r="D20" s="8" t="s">
+      <c r="C20" s="16">
+        <v>9</v>
+      </c>
+      <c r="D20" s="16" t="s">
         <v>54</v>
       </c>
       <c r="E20" s="2">
@@ -1595,8 +1694,8 @@
     <row r="21" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
       <c r="B21" s="4"/>
-      <c r="C21" s="4"/>
-      <c r="D21" s="8"/>
+      <c r="C21" s="16"/>
+      <c r="D21" s="16"/>
       <c r="E21" s="2">
         <v>200</v>
       </c>
@@ -1634,8 +1733,10 @@
     <row r="22" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
       <c r="B22" s="4"/>
-      <c r="C22" s="4"/>
-      <c r="D22" s="8" t="s">
+      <c r="C22" s="16">
+        <v>10</v>
+      </c>
+      <c r="D22" s="16" t="s">
         <v>55</v>
       </c>
       <c r="E22" s="2">
@@ -1675,8 +1776,8 @@
     <row r="23" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
       <c r="B23" s="4"/>
-      <c r="C23" s="4"/>
-      <c r="D23" s="8"/>
+      <c r="C23" s="16"/>
+      <c r="D23" s="16"/>
       <c r="E23" s="2">
         <v>200</v>
       </c>
@@ -1714,8 +1815,10 @@
     <row r="24" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
       <c r="B24" s="4"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="8" t="s">
+      <c r="C24" s="16">
+        <v>11</v>
+      </c>
+      <c r="D24" s="16" t="s">
         <v>56</v>
       </c>
       <c r="E24" s="2">
@@ -1755,8 +1858,8 @@
     <row r="25" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
       <c r="B25" s="4"/>
-      <c r="C25" s="4"/>
-      <c r="D25" s="8"/>
+      <c r="C25" s="16"/>
+      <c r="D25" s="16"/>
       <c r="E25" s="2">
         <v>200</v>
       </c>
@@ -1794,8 +1897,10 @@
     <row r="26" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
       <c r="B26" s="4"/>
-      <c r="C26" s="4"/>
-      <c r="D26" s="8" t="s">
+      <c r="C26" s="16">
+        <v>12</v>
+      </c>
+      <c r="D26" s="16" t="s">
         <v>57</v>
       </c>
       <c r="E26" s="2">
@@ -1835,8 +1940,8 @@
     <row r="27" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
       <c r="B27" s="4"/>
-      <c r="C27" s="4"/>
-      <c r="D27" s="8"/>
+      <c r="C27" s="16"/>
+      <c r="D27" s="16"/>
       <c r="E27" s="2">
         <v>200</v>
       </c>
@@ -1922,58 +2027,62 @@
     <row r="31" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
       <c r="B31" s="4"/>
-      <c r="C31" s="4"/>
-      <c r="D31" s="9" t="s">
+      <c r="C31" s="12" t="s">
         <v>67</v>
       </c>
-      <c r="E31" s="10"/>
-      <c r="F31" s="10"/>
-      <c r="G31" s="10"/>
-      <c r="H31" s="10"/>
-      <c r="I31" s="10"/>
-      <c r="J31" s="10"/>
-      <c r="K31" s="10"/>
-      <c r="L31" s="10"/>
-      <c r="M31" s="10"/>
-      <c r="N31" s="10"/>
-      <c r="O31" s="11"/>
+      <c r="D31" s="12"/>
+      <c r="E31" s="12"/>
+      <c r="F31" s="12"/>
+      <c r="G31" s="12"/>
+      <c r="H31" s="12"/>
+      <c r="I31" s="12"/>
+      <c r="J31" s="12"/>
+      <c r="K31" s="12"/>
+      <c r="L31" s="12"/>
+      <c r="M31" s="12"/>
+      <c r="N31" s="12"/>
+      <c r="O31" s="12"/>
     </row>
     <row r="32" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
       <c r="B32" s="4"/>
-      <c r="C32" s="4"/>
+      <c r="C32" s="9" t="s">
+        <v>117</v>
+      </c>
       <c r="D32" s="1" t="s">
         <v>45</v>
       </c>
       <c r="E32" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="F32" s="9" t="s">
+      <c r="F32" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="G32" s="11"/>
-      <c r="H32" s="9" t="s">
+      <c r="G32" s="21"/>
+      <c r="H32" s="20" t="s">
         <v>41</v>
       </c>
-      <c r="I32" s="11"/>
-      <c r="J32" s="9" t="s">
+      <c r="I32" s="21"/>
+      <c r="J32" s="20" t="s">
         <v>42</v>
       </c>
-      <c r="K32" s="11"/>
-      <c r="L32" s="9" t="s">
+      <c r="K32" s="21"/>
+      <c r="L32" s="20" t="s">
         <v>43</v>
       </c>
-      <c r="M32" s="11"/>
-      <c r="N32" s="9" t="s">
+      <c r="M32" s="21"/>
+      <c r="N32" s="20" t="s">
         <v>44</v>
       </c>
-      <c r="O32" s="11"/>
+      <c r="O32" s="21"/>
     </row>
     <row r="33" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
       <c r="B33" s="4"/>
-      <c r="C33" s="4"/>
-      <c r="D33" s="13" t="s">
+      <c r="C33" s="16">
+        <v>1</v>
+      </c>
+      <c r="D33" s="18" t="s">
         <v>46</v>
       </c>
       <c r="E33" s="2" t="s">
@@ -2013,8 +2122,8 @@
     <row r="34" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A34" s="4"/>
       <c r="B34" s="4"/>
-      <c r="C34" s="4"/>
-      <c r="D34" s="14"/>
+      <c r="C34" s="16"/>
+      <c r="D34" s="19"/>
       <c r="E34" s="2" t="s">
         <v>69</v>
       </c>
@@ -2052,8 +2161,10 @@
     <row r="35" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A35" s="4"/>
       <c r="B35" s="4"/>
-      <c r="C35" s="4"/>
-      <c r="D35" s="13" t="s">
+      <c r="C35" s="16">
+        <v>2</v>
+      </c>
+      <c r="D35" s="18" t="s">
         <v>47</v>
       </c>
       <c r="E35" s="2" t="s">
@@ -2093,8 +2204,8 @@
     <row r="36" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A36" s="4"/>
       <c r="B36" s="4"/>
-      <c r="C36" s="4"/>
-      <c r="D36" s="14"/>
+      <c r="C36" s="16"/>
+      <c r="D36" s="19"/>
       <c r="E36" s="2" t="s">
         <v>69</v>
       </c>
@@ -2132,8 +2243,10 @@
     <row r="37" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
       <c r="B37" s="4"/>
-      <c r="C37" s="4"/>
-      <c r="D37" s="13" t="s">
+      <c r="C37" s="16">
+        <v>3</v>
+      </c>
+      <c r="D37" s="18" t="s">
         <v>48</v>
       </c>
       <c r="E37" s="2" t="s">
@@ -2173,8 +2286,8 @@
     <row r="38" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
       <c r="B38" s="4"/>
-      <c r="C38" s="4"/>
-      <c r="D38" s="14"/>
+      <c r="C38" s="16"/>
+      <c r="D38" s="19"/>
       <c r="E38" s="2" t="s">
         <v>69</v>
       </c>
@@ -2212,8 +2325,10 @@
     <row r="39" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A39" s="4"/>
       <c r="B39" s="4"/>
-      <c r="C39" s="4"/>
-      <c r="D39" s="13" t="s">
+      <c r="C39" s="16">
+        <v>4</v>
+      </c>
+      <c r="D39" s="18" t="s">
         <v>49</v>
       </c>
       <c r="E39" s="2" t="s">
@@ -2253,8 +2368,8 @@
     <row r="40" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A40" s="4"/>
       <c r="B40" s="4"/>
-      <c r="C40" s="4"/>
-      <c r="D40" s="14"/>
+      <c r="C40" s="16"/>
+      <c r="D40" s="19"/>
       <c r="E40" s="7" t="s">
         <v>69</v>
       </c>
@@ -2292,8 +2407,10 @@
     <row r="41" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A41" s="4"/>
       <c r="B41" s="4"/>
-      <c r="C41" s="4"/>
-      <c r="D41" s="13" t="s">
+      <c r="C41" s="16">
+        <v>5</v>
+      </c>
+      <c r="D41" s="18" t="s">
         <v>50</v>
       </c>
       <c r="E41" s="2" t="s">
@@ -2333,8 +2450,8 @@
     <row r="42" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A42" s="4"/>
       <c r="B42" s="4"/>
-      <c r="C42" s="4"/>
-      <c r="D42" s="14"/>
+      <c r="C42" s="16"/>
+      <c r="D42" s="19"/>
       <c r="E42" s="7" t="s">
         <v>69</v>
       </c>
@@ -2372,8 +2489,10 @@
     <row r="43" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A43" s="4"/>
       <c r="B43" s="4"/>
-      <c r="C43" s="4"/>
-      <c r="D43" s="13" t="s">
+      <c r="C43" s="16">
+        <v>6</v>
+      </c>
+      <c r="D43" s="18" t="s">
         <v>51</v>
       </c>
       <c r="E43" s="2" t="s">
@@ -2413,8 +2532,8 @@
     <row r="44" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A44" s="4"/>
       <c r="B44" s="4"/>
-      <c r="C44" s="4"/>
-      <c r="D44" s="14"/>
+      <c r="C44" s="16"/>
+      <c r="D44" s="19"/>
       <c r="E44" s="7" t="s">
         <v>69</v>
       </c>
@@ -2452,8 +2571,10 @@
     <row r="45" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A45" s="4"/>
       <c r="B45" s="4"/>
-      <c r="C45" s="4"/>
-      <c r="D45" s="13" t="s">
+      <c r="C45" s="16">
+        <v>7</v>
+      </c>
+      <c r="D45" s="18" t="s">
         <v>52</v>
       </c>
       <c r="E45" s="2" t="s">
@@ -2493,8 +2614,8 @@
     <row r="46" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A46" s="4"/>
       <c r="B46" s="4"/>
-      <c r="C46" s="4"/>
-      <c r="D46" s="14"/>
+      <c r="C46" s="16"/>
+      <c r="D46" s="19"/>
       <c r="E46" s="7" t="s">
         <v>69</v>
       </c>
@@ -2532,8 +2653,10 @@
     <row r="47" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A47" s="4"/>
       <c r="B47" s="4"/>
-      <c r="C47" s="4"/>
-      <c r="D47" s="13" t="s">
+      <c r="C47" s="16">
+        <v>8</v>
+      </c>
+      <c r="D47" s="18" t="s">
         <v>53</v>
       </c>
       <c r="E47" s="2" t="s">
@@ -2573,8 +2696,8 @@
     <row r="48" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A48" s="4"/>
       <c r="B48" s="4"/>
-      <c r="C48" s="4"/>
-      <c r="D48" s="14"/>
+      <c r="C48" s="16"/>
+      <c r="D48" s="19"/>
       <c r="E48" s="7" t="s">
         <v>69</v>
       </c>
@@ -2612,8 +2735,10 @@
     <row r="49" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A49" s="4"/>
       <c r="B49" s="4"/>
-      <c r="C49" s="4"/>
-      <c r="D49" s="13" t="s">
+      <c r="C49" s="16">
+        <v>9</v>
+      </c>
+      <c r="D49" s="18" t="s">
         <v>54</v>
       </c>
       <c r="E49" s="2" t="s">
@@ -2653,8 +2778,8 @@
     <row r="50" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A50" s="4"/>
       <c r="B50" s="4"/>
-      <c r="C50" s="4"/>
-      <c r="D50" s="14"/>
+      <c r="C50" s="16"/>
+      <c r="D50" s="19"/>
       <c r="E50" s="7" t="s">
         <v>69</v>
       </c>
@@ -2692,8 +2817,10 @@
     <row r="51" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A51" s="4"/>
       <c r="B51" s="4"/>
-      <c r="C51" s="4"/>
-      <c r="D51" s="13" t="s">
+      <c r="C51" s="16">
+        <v>10</v>
+      </c>
+      <c r="D51" s="18" t="s">
         <v>55</v>
       </c>
       <c r="E51" s="2" t="s">
@@ -2731,7 +2858,8 @@
       </c>
     </row>
     <row r="52" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="D52" s="14"/>
+      <c r="C52" s="16"/>
+      <c r="D52" s="19"/>
       <c r="E52" s="7" t="s">
         <v>69</v>
       </c>
@@ -2767,7 +2895,10 @@
       </c>
     </row>
     <row r="53" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="D53" s="13" t="s">
+      <c r="C53" s="16">
+        <v>11</v>
+      </c>
+      <c r="D53" s="18" t="s">
         <v>56</v>
       </c>
       <c r="E53" s="2" t="s">
@@ -2805,7 +2936,8 @@
       </c>
     </row>
     <row r="54" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="D54" s="14"/>
+      <c r="C54" s="16"/>
+      <c r="D54" s="19"/>
       <c r="E54" s="7" t="s">
         <v>69</v>
       </c>
@@ -2841,7 +2973,10 @@
       </c>
     </row>
     <row r="55" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="D55" s="8" t="s">
+      <c r="C55" s="16">
+        <v>12</v>
+      </c>
+      <c r="D55" s="16" t="s">
         <v>57</v>
       </c>
       <c r="E55" s="2" t="s">
@@ -2879,7 +3014,8 @@
       </c>
     </row>
     <row r="56" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="D56" s="8"/>
+      <c r="C56" s="16"/>
+      <c r="D56" s="16"/>
       <c r="E56" s="7" t="s">
         <v>69</v>
       </c>
@@ -2915,32 +3051,36 @@
       </c>
     </row>
     <row r="60" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="D60" s="15" t="s">
+      <c r="C60" s="12" t="s">
         <v>113</v>
       </c>
-      <c r="E60" s="15"/>
-      <c r="F60" s="15"/>
-      <c r="G60" s="15"/>
-      <c r="H60" s="15"/>
-      <c r="I60" s="15"/>
-      <c r="J60" s="15"/>
-      <c r="K60" s="15"/>
-      <c r="L60" s="15"/>
-      <c r="M60" s="15"/>
-      <c r="N60" s="15"/>
-      <c r="O60" s="15"/>
+      <c r="D60" s="12"/>
+      <c r="E60" s="12"/>
+      <c r="F60" s="12"/>
+      <c r="G60" s="12"/>
+      <c r="H60" s="12"/>
+      <c r="I60" s="12"/>
+      <c r="J60" s="12"/>
+      <c r="K60" s="12"/>
+      <c r="L60" s="12"/>
+      <c r="M60" s="12"/>
+      <c r="N60" s="12"/>
+      <c r="O60" s="12"/>
     </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="C61" s="9" t="s">
+        <v>117</v>
+      </c>
       <c r="D61" s="1" t="s">
         <v>45</v>
       </c>
       <c r="E61" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="F61" s="9" t="s">
+      <c r="F61" s="20" t="s">
         <v>40</v>
       </c>
-      <c r="G61" s="11"/>
+      <c r="G61" s="21"/>
       <c r="H61" s="12" t="s">
         <v>41</v>
       </c>
@@ -2959,7 +3099,10 @@
       <c r="O61" s="12"/>
     </row>
     <row r="62" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="D62" s="8" t="s">
+      <c r="C62" s="16">
+        <v>1</v>
+      </c>
+      <c r="D62" s="16" t="s">
         <v>79</v>
       </c>
       <c r="E62" s="2">
@@ -2997,7 +3140,8 @@
       </c>
     </row>
     <row r="63" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="D63" s="8"/>
+      <c r="C63" s="16"/>
+      <c r="D63" s="16"/>
       <c r="E63" s="2">
         <v>200</v>
       </c>
@@ -3033,7 +3177,10 @@
       </c>
     </row>
     <row r="64" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="D64" s="8" t="s">
+      <c r="C64" s="16">
+        <v>2</v>
+      </c>
+      <c r="D64" s="16" t="s">
         <v>80</v>
       </c>
       <c r="E64" s="2">
@@ -3070,8 +3217,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="65" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D65" s="8"/>
+    <row r="65" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C65" s="16"/>
+      <c r="D65" s="16"/>
       <c r="E65" s="2">
         <v>200</v>
       </c>
@@ -3106,8 +3254,11 @@
         <v>12</v>
       </c>
     </row>
-    <row r="66" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D66" s="8" t="s">
+    <row r="66" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C66" s="16">
+        <v>3</v>
+      </c>
+      <c r="D66" s="16" t="s">
         <v>81</v>
       </c>
       <c r="E66" s="2">
@@ -3144,8 +3295,9 @@
         <v>31</v>
       </c>
     </row>
-    <row r="67" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D67" s="8"/>
+    <row r="67" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C67" s="16"/>
+      <c r="D67" s="16"/>
       <c r="E67" s="2">
         <v>200</v>
       </c>
@@ -3180,8 +3332,11 @@
         <v>31</v>
       </c>
     </row>
-    <row r="68" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D68" s="8" t="s">
+    <row r="68" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C68" s="16">
+        <v>4</v>
+      </c>
+      <c r="D68" s="16" t="s">
         <v>82</v>
       </c>
       <c r="E68" s="2">
@@ -3218,8 +3373,9 @@
         <v>31</v>
       </c>
     </row>
-    <row r="69" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D69" s="8"/>
+    <row r="69" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C69" s="16"/>
+      <c r="D69" s="16"/>
       <c r="E69" s="2">
         <v>200</v>
       </c>
@@ -3254,8 +3410,11 @@
         <v>8</v>
       </c>
     </row>
-    <row r="70" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D70" s="8" t="s">
+    <row r="70" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C70" s="16">
+        <v>5</v>
+      </c>
+      <c r="D70" s="16" t="s">
         <v>83</v>
       </c>
       <c r="E70" s="2">
@@ -3292,8 +3451,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="71" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D71" s="8"/>
+    <row r="71" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C71" s="16"/>
+      <c r="D71" s="16"/>
       <c r="E71" s="2">
         <v>200</v>
       </c>
@@ -3328,8 +3488,11 @@
         <v>31</v>
       </c>
     </row>
-    <row r="72" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D72" s="8" t="s">
+    <row r="72" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C72" s="16">
+        <v>6</v>
+      </c>
+      <c r="D72" s="16" t="s">
         <v>84</v>
       </c>
       <c r="E72" s="2">
@@ -3366,8 +3529,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="73" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D73" s="8"/>
+    <row r="73" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C73" s="16"/>
+      <c r="D73" s="16"/>
       <c r="E73" s="2">
         <v>100</v>
       </c>
@@ -3402,8 +3566,11 @@
         <v>12</v>
       </c>
     </row>
-    <row r="74" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D74" s="8" t="s">
+    <row r="74" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C74" s="16">
+        <v>7</v>
+      </c>
+      <c r="D74" s="16" t="s">
         <v>85</v>
       </c>
       <c r="E74" s="2">
@@ -3440,8 +3607,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="75" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D75" s="8"/>
+    <row r="75" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C75" s="16"/>
+      <c r="D75" s="16"/>
       <c r="E75" s="2">
         <v>200</v>
       </c>
@@ -3476,8 +3644,11 @@
         <v>8</v>
       </c>
     </row>
-    <row r="76" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D76" s="8" t="s">
+    <row r="76" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C76" s="16">
+        <v>8</v>
+      </c>
+      <c r="D76" s="16" t="s">
         <v>86</v>
       </c>
       <c r="E76" s="2">
@@ -3514,8 +3685,9 @@
         <v>31</v>
       </c>
     </row>
-    <row r="77" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D77" s="8"/>
+    <row r="77" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C77" s="16"/>
+      <c r="D77" s="16"/>
       <c r="E77" s="2">
         <v>200</v>
       </c>
@@ -3550,8 +3722,11 @@
         <v>8</v>
       </c>
     </row>
-    <row r="78" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D78" s="8" t="s">
+    <row r="78" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C78" s="16">
+        <v>9</v>
+      </c>
+      <c r="D78" s="16" t="s">
         <v>87</v>
       </c>
       <c r="E78" s="2">
@@ -3588,8 +3763,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="79" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D79" s="8"/>
+    <row r="79" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C79" s="16"/>
+      <c r="D79" s="16"/>
       <c r="E79" s="2">
         <v>200</v>
       </c>
@@ -3624,8 +3800,11 @@
         <v>12</v>
       </c>
     </row>
-    <row r="80" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D80" s="8" t="s">
+    <row r="80" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C80" s="16">
+        <v>10</v>
+      </c>
+      <c r="D80" s="16" t="s">
         <v>88</v>
       </c>
       <c r="E80" s="2">
@@ -3662,8 +3841,9 @@
         <v>31</v>
       </c>
     </row>
-    <row r="81" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D81" s="8"/>
+    <row r="81" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C81" s="16"/>
+      <c r="D81" s="16"/>
       <c r="E81" s="2">
         <v>200</v>
       </c>
@@ -3698,8 +3878,11 @@
         <v>31</v>
       </c>
     </row>
-    <row r="82" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D82" s="8" t="s">
+    <row r="82" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C82" s="16">
+        <v>11</v>
+      </c>
+      <c r="D82" s="16" t="s">
         <v>89</v>
       </c>
       <c r="E82" s="2">
@@ -3736,8 +3919,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="83" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D83" s="8"/>
+    <row r="83" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C83" s="16"/>
+      <c r="D83" s="16"/>
       <c r="E83" s="2">
         <v>200</v>
       </c>
@@ -3772,8 +3956,11 @@
         <v>12</v>
       </c>
     </row>
-    <row r="84" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D84" s="8" t="s">
+    <row r="84" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C84" s="16">
+        <v>12</v>
+      </c>
+      <c r="D84" s="16" t="s">
         <v>90</v>
       </c>
       <c r="E84" s="2">
@@ -3810,8 +3997,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="85" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D85" s="8"/>
+    <row r="85" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C85" s="16"/>
+      <c r="D85" s="16"/>
       <c r="E85" s="2">
         <v>200</v>
       </c>
@@ -3846,8 +4034,11 @@
         <v>31</v>
       </c>
     </row>
-    <row r="86" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D86" s="8" t="s">
+    <row r="86" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C86" s="16">
+        <v>13</v>
+      </c>
+      <c r="D86" s="16" t="s">
         <v>91</v>
       </c>
       <c r="E86" s="2">
@@ -3884,8 +4075,9 @@
         <v>16</v>
       </c>
     </row>
-    <row r="87" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D87" s="8"/>
+    <row r="87" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C87" s="16"/>
+      <c r="D87" s="16"/>
       <c r="E87" s="2">
         <v>100</v>
       </c>
@@ -3920,23 +4112,27 @@
         <v>31</v>
       </c>
     </row>
-    <row r="91" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D91" s="9" t="s">
+    <row r="91" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C91" s="12" t="s">
         <v>112</v>
       </c>
-      <c r="E91" s="10"/>
-      <c r="F91" s="10"/>
-      <c r="G91" s="10"/>
-      <c r="H91" s="10"/>
-      <c r="I91" s="10"/>
-      <c r="J91" s="10"/>
-      <c r="K91" s="10"/>
-      <c r="L91" s="10"/>
-      <c r="M91" s="10"/>
-      <c r="N91" s="10"/>
-      <c r="O91" s="11"/>
-    </row>
-    <row r="92" spans="4:15" x14ac:dyDescent="0.25">
+      <c r="D91" s="12"/>
+      <c r="E91" s="12"/>
+      <c r="F91" s="12"/>
+      <c r="G91" s="12"/>
+      <c r="H91" s="12"/>
+      <c r="I91" s="12"/>
+      <c r="J91" s="12"/>
+      <c r="K91" s="12"/>
+      <c r="L91" s="12"/>
+      <c r="M91" s="12"/>
+      <c r="N91" s="12"/>
+      <c r="O91" s="12"/>
+    </row>
+    <row r="92" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C92" s="9" t="s">
+        <v>117</v>
+      </c>
       <c r="D92" s="1" t="s">
         <v>45</v>
       </c>
@@ -3964,8 +4160,11 @@
       </c>
       <c r="O92" s="12"/>
     </row>
-    <row r="93" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D93" s="8" t="s">
+    <row r="93" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C93" s="16">
+        <v>1</v>
+      </c>
+      <c r="D93" s="16" t="s">
         <v>79</v>
       </c>
       <c r="E93" s="2" t="s">
@@ -4002,8 +4201,9 @@
         <v>31</v>
       </c>
     </row>
-    <row r="94" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D94" s="8"/>
+    <row r="94" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C94" s="16"/>
+      <c r="D94" s="16"/>
       <c r="E94" s="2" t="s">
         <v>69</v>
       </c>
@@ -4038,8 +4238,11 @@
         <v>78</v>
       </c>
     </row>
-    <row r="95" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D95" s="8" t="s">
+    <row r="95" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C95" s="16">
+        <v>2</v>
+      </c>
+      <c r="D95" s="16" t="s">
         <v>80</v>
       </c>
       <c r="E95" s="2" t="s">
@@ -4076,8 +4279,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="96" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D96" s="8"/>
+    <row r="96" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C96" s="16"/>
+      <c r="D96" s="16"/>
       <c r="E96" s="2" t="s">
         <v>69</v>
       </c>
@@ -4112,8 +4316,11 @@
         <v>78</v>
       </c>
     </row>
-    <row r="97" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D97" s="8" t="s">
+    <row r="97" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C97" s="16">
+        <v>3</v>
+      </c>
+      <c r="D97" s="16" t="s">
         <v>81</v>
       </c>
       <c r="E97" s="2" t="s">
@@ -4150,8 +4357,9 @@
         <v>31</v>
       </c>
     </row>
-    <row r="98" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D98" s="8"/>
+    <row r="98" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C98" s="16"/>
+      <c r="D98" s="16"/>
       <c r="E98" s="2" t="s">
         <v>69</v>
       </c>
@@ -4186,8 +4394,11 @@
         <v>78</v>
       </c>
     </row>
-    <row r="99" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D99" s="8" t="s">
+    <row r="99" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C99" s="16">
+        <v>4</v>
+      </c>
+      <c r="D99" s="16" t="s">
         <v>82</v>
       </c>
       <c r="E99" s="2" t="s">
@@ -4224,8 +4435,9 @@
         <v>8</v>
       </c>
     </row>
-    <row r="100" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D100" s="8"/>
+    <row r="100" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C100" s="16"/>
+      <c r="D100" s="16"/>
       <c r="E100" s="2" t="s">
         <v>69</v>
       </c>
@@ -4260,8 +4472,11 @@
         <v>78</v>
       </c>
     </row>
-    <row r="101" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D101" s="8" t="s">
+    <row r="101" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C101" s="16">
+        <v>5</v>
+      </c>
+      <c r="D101" s="16" t="s">
         <v>83</v>
       </c>
       <c r="E101" s="2" t="s">
@@ -4298,8 +4513,9 @@
         <v>31</v>
       </c>
     </row>
-    <row r="102" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D102" s="8"/>
+    <row r="102" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C102" s="16"/>
+      <c r="D102" s="16"/>
       <c r="E102" s="2" t="s">
         <v>69</v>
       </c>
@@ -4334,8 +4550,11 @@
         <v>78</v>
       </c>
     </row>
-    <row r="103" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D103" s="8" t="s">
+    <row r="103" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C103" s="16">
+        <v>6</v>
+      </c>
+      <c r="D103" s="16" t="s">
         <v>84</v>
       </c>
       <c r="E103" s="2" t="s">
@@ -4372,8 +4591,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="104" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D104" s="8"/>
+    <row r="104" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C104" s="16"/>
+      <c r="D104" s="16"/>
       <c r="E104" s="2" t="s">
         <v>69</v>
       </c>
@@ -4408,8 +4628,11 @@
         <v>78</v>
       </c>
     </row>
-    <row r="105" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D105" s="8" t="s">
+    <row r="105" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C105" s="16">
+        <v>7</v>
+      </c>
+      <c r="D105" s="16" t="s">
         <v>85</v>
       </c>
       <c r="E105" s="2" t="s">
@@ -4446,8 +4669,9 @@
         <v>1</v>
       </c>
     </row>
-    <row r="106" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D106" s="8"/>
+    <row r="106" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C106" s="16"/>
+      <c r="D106" s="16"/>
       <c r="E106" s="2" t="s">
         <v>69</v>
       </c>
@@ -4482,8 +4706,11 @@
         <v>78</v>
       </c>
     </row>
-    <row r="107" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D107" s="8" t="s">
+    <row r="107" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C107" s="16">
+        <v>8</v>
+      </c>
+      <c r="D107" s="16" t="s">
         <v>86</v>
       </c>
       <c r="E107" s="2" t="s">
@@ -4520,8 +4747,9 @@
         <v>31</v>
       </c>
     </row>
-    <row r="108" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D108" s="8"/>
+    <row r="108" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C108" s="16"/>
+      <c r="D108" s="16"/>
       <c r="E108" s="2" t="s">
         <v>69</v>
       </c>
@@ -4556,8 +4784,11 @@
         <v>78</v>
       </c>
     </row>
-    <row r="109" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D109" s="8" t="s">
+    <row r="109" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C109" s="16">
+        <v>9</v>
+      </c>
+      <c r="D109" s="16" t="s">
         <v>87</v>
       </c>
       <c r="E109" s="2" t="s">
@@ -4594,8 +4825,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="110" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D110" s="8"/>
+    <row r="110" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C110" s="16"/>
+      <c r="D110" s="16"/>
       <c r="E110" s="2" t="s">
         <v>69</v>
       </c>
@@ -4630,8 +4862,11 @@
         <v>78</v>
       </c>
     </row>
-    <row r="111" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D111" s="8" t="s">
+    <row r="111" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C111" s="16">
+        <v>10</v>
+      </c>
+      <c r="D111" s="16" t="s">
         <v>88</v>
       </c>
       <c r="E111" s="2" t="s">
@@ -4668,8 +4903,9 @@
         <v>31</v>
       </c>
     </row>
-    <row r="112" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D112" s="8"/>
+    <row r="112" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C112" s="16"/>
+      <c r="D112" s="16"/>
       <c r="E112" s="2" t="s">
         <v>69</v>
       </c>
@@ -4704,8 +4940,11 @@
         <v>78</v>
       </c>
     </row>
-    <row r="113" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D113" s="8" t="s">
+    <row r="113" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C113" s="16">
+        <v>11</v>
+      </c>
+      <c r="D113" s="16" t="s">
         <v>89</v>
       </c>
       <c r="E113" s="2" t="s">
@@ -4742,8 +4981,9 @@
         <v>12</v>
       </c>
     </row>
-    <row r="114" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D114" s="8"/>
+    <row r="114" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C114" s="16"/>
+      <c r="D114" s="16"/>
       <c r="E114" s="2" t="s">
         <v>69</v>
       </c>
@@ -4778,8 +5018,11 @@
         <v>78</v>
       </c>
     </row>
-    <row r="115" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D115" s="8" t="s">
+    <row r="115" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C115" s="16">
+        <v>12</v>
+      </c>
+      <c r="D115" s="16" t="s">
         <v>90</v>
       </c>
       <c r="E115" s="2" t="s">
@@ -4816,8 +5059,9 @@
         <v>31</v>
       </c>
     </row>
-    <row r="116" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D116" s="8"/>
+    <row r="116" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C116" s="16"/>
+      <c r="D116" s="16"/>
       <c r="E116" s="2" t="s">
         <v>69</v>
       </c>
@@ -4852,8 +5096,11 @@
         <v>78</v>
       </c>
     </row>
-    <row r="117" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D117" s="8" t="s">
+    <row r="117" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C117" s="16">
+        <v>13</v>
+      </c>
+      <c r="D117" s="16" t="s">
         <v>91</v>
       </c>
       <c r="E117" s="2" t="s">
@@ -4890,8 +5137,9 @@
         <v>31</v>
       </c>
     </row>
-    <row r="118" spans="4:15" x14ac:dyDescent="0.25">
-      <c r="D118" s="8"/>
+    <row r="118" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C118" s="16"/>
+      <c r="D118" s="16"/>
       <c r="E118" s="2" t="s">
         <v>69</v>
       </c>
@@ -4926,13 +5174,3440 @@
         <v>78</v>
       </c>
     </row>
+    <row r="122" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C122" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="D122" s="12"/>
+      <c r="E122" s="12"/>
+      <c r="F122" s="12"/>
+      <c r="G122" s="12"/>
+      <c r="H122" s="12"/>
+      <c r="I122" s="12"/>
+      <c r="J122" s="12"/>
+      <c r="K122" s="12"/>
+      <c r="L122" s="12"/>
+      <c r="M122" s="12"/>
+      <c r="N122" s="12"/>
+    </row>
+    <row r="123" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C123" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="D123" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="E123" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="F123" s="14"/>
+      <c r="G123" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="H123" s="15"/>
+      <c r="I123" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="J123" s="15"/>
+      <c r="K123" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="L123" s="15"/>
+      <c r="M123" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="N123" s="15"/>
+    </row>
+    <row r="124" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C124" s="8">
+        <v>1</v>
+      </c>
+      <c r="D124" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E124" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="F124" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="G124" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="H124" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I124" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="J124" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="K124" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="L124" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="M124" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="N124" s="8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C125" s="8">
+        <v>2</v>
+      </c>
+      <c r="D125" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E125" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="F125" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="G125" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="H125" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="I125" s="8" t="s">
+        <v>119</v>
+      </c>
+      <c r="J125" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="K125" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="L125" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="M125" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="N125" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="126" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C126" s="8">
+        <v>3</v>
+      </c>
+      <c r="D126" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="E126" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F126" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G126" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H126" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I126" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="J126" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="K126" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="L126" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="M126" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="N126" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="127" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C127" s="8">
+        <v>4</v>
+      </c>
+      <c r="D127" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E127" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="F127" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="G127" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="H127" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="I127" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="J127" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="K127" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="L127" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="M127" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="N127" s="8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="128" spans="3:15" x14ac:dyDescent="0.25">
+      <c r="C128" s="8">
+        <v>5</v>
+      </c>
+      <c r="D128" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E128" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="F128" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G128" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="H128" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="I128" s="8" t="s">
+        <v>120</v>
+      </c>
+      <c r="J128" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="K128" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="L128" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="M128" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="N128" s="8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="129" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C129" s="8">
+        <v>6</v>
+      </c>
+      <c r="D129" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E129" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="F129" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="G129" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="H129" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="I129" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="J129" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="K129" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="L129" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="M129" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="N129" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="130" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C130" s="8">
+        <v>7</v>
+      </c>
+      <c r="D130" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="E130" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F130" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G130" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H130" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="I130" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="J130" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="K130" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="L130" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="M130" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="N130" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="131" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C131" s="8">
+        <v>8</v>
+      </c>
+      <c r="D131" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="E131" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F131" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G131" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="H131" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="I131" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="J131" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K131" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="L131" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="M131" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="N131" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="132" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C132" s="8">
+        <v>9</v>
+      </c>
+      <c r="D132" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E132" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="F132" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="G132" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="H132" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="I132" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J132" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="K132" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="L132" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="M132" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="N132" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="133" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C133" s="8">
+        <v>10</v>
+      </c>
+      <c r="D133" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="E133" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F133" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G133" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H133" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="I133" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="J133" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="K133" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="L133" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="M133" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="N133" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="134" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C134" s="8">
+        <v>11</v>
+      </c>
+      <c r="D134" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="E134" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F134" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G134" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H134" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I134" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="J134" s="8" t="s">
+        <v>122</v>
+      </c>
+      <c r="K134" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="L134" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="M134" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="N134" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="135" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C135" s="8">
+        <v>12</v>
+      </c>
+      <c r="D135" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="E135" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F135" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G135" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="H135" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="I135" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="J135" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="K135" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="L135" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="M135" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="N135" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="139" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C139" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="D139" s="12"/>
+      <c r="E139" s="12"/>
+      <c r="F139" s="12"/>
+      <c r="G139" s="12"/>
+      <c r="H139" s="12"/>
+      <c r="I139" s="12"/>
+      <c r="J139" s="12"/>
+      <c r="K139" s="12"/>
+      <c r="L139" s="12"/>
+      <c r="M139" s="12"/>
+      <c r="N139" s="12"/>
+    </row>
+    <row r="140" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C140" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="D140" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="E140" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="F140" s="14"/>
+      <c r="G140" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="H140" s="15"/>
+      <c r="I140" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="J140" s="15"/>
+      <c r="K140" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="L140" s="15"/>
+      <c r="M140" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="N140" s="15"/>
+    </row>
+    <row r="141" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C141" s="8">
+        <v>1</v>
+      </c>
+      <c r="D141" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="E141" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="F141" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="G141" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="H141" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="I141" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="J141" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="K141" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="L141" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="M141" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="N141" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="142" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C142" s="8">
+        <v>2</v>
+      </c>
+      <c r="D142" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="E142" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F142" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="G142" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="H142" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="I142" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="J142" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="K142" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="L142" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="M142" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="N142" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="143" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C143" s="8">
+        <v>3</v>
+      </c>
+      <c r="D143" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="E143" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="F143" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G143" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="H143" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I143" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="J143" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="K143" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="L143" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="M143" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="N143" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="144" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C144" s="8">
+        <v>4</v>
+      </c>
+      <c r="D144" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="E144" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F144" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G144" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="H144" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I144" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="J144" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="K144" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="L144" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="M144" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="N144" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="145" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C145" s="8">
+        <v>5</v>
+      </c>
+      <c r="D145" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="E145" s="8"/>
+      <c r="F145" s="8"/>
+      <c r="G145" s="8"/>
+      <c r="H145" s="8"/>
+      <c r="I145" s="8"/>
+      <c r="J145" s="8"/>
+      <c r="K145" s="8"/>
+      <c r="L145" s="8"/>
+      <c r="M145" s="8"/>
+      <c r="N145" s="8"/>
+    </row>
+    <row r="146" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C146" s="8">
+        <v>6</v>
+      </c>
+      <c r="D146" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="E146" s="8"/>
+      <c r="F146" s="8"/>
+      <c r="G146" s="8"/>
+      <c r="H146" s="8"/>
+      <c r="I146" s="8"/>
+      <c r="J146" s="8"/>
+      <c r="K146" s="8"/>
+      <c r="L146" s="8"/>
+      <c r="M146" s="8"/>
+      <c r="N146" s="8"/>
+    </row>
+    <row r="147" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C147" s="8">
+        <v>7</v>
+      </c>
+      <c r="D147" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="E147" s="8"/>
+      <c r="F147" s="8"/>
+      <c r="G147" s="8"/>
+      <c r="H147" s="8"/>
+      <c r="I147" s="8"/>
+      <c r="J147" s="8"/>
+      <c r="K147" s="8"/>
+      <c r="L147" s="8"/>
+      <c r="M147" s="8"/>
+      <c r="N147" s="8"/>
+    </row>
+    <row r="148" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C148" s="8">
+        <v>8</v>
+      </c>
+      <c r="D148" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="E148" s="8"/>
+      <c r="F148" s="8"/>
+      <c r="G148" s="8"/>
+      <c r="H148" s="8"/>
+      <c r="I148" s="8"/>
+      <c r="J148" s="8"/>
+      <c r="K148" s="8"/>
+      <c r="L148" s="8"/>
+      <c r="M148" s="8"/>
+      <c r="N148" s="8"/>
+    </row>
+    <row r="149" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C149" s="8">
+        <v>9</v>
+      </c>
+      <c r="D149" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="E149" s="8"/>
+      <c r="F149" s="8"/>
+      <c r="G149" s="8"/>
+      <c r="H149" s="8"/>
+      <c r="I149" s="8"/>
+      <c r="J149" s="8"/>
+      <c r="K149" s="8"/>
+      <c r="L149" s="8"/>
+      <c r="M149" s="8"/>
+      <c r="N149" s="8"/>
+    </row>
+    <row r="150" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C150" s="8">
+        <v>10</v>
+      </c>
+      <c r="D150" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="E150" s="8"/>
+      <c r="F150" s="8"/>
+      <c r="G150" s="8"/>
+      <c r="H150" s="8"/>
+      <c r="I150" s="8"/>
+      <c r="J150" s="8"/>
+      <c r="K150" s="8"/>
+      <c r="L150" s="8"/>
+      <c r="M150" s="8"/>
+      <c r="N150" s="8"/>
+    </row>
+    <row r="151" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C151" s="8">
+        <v>11</v>
+      </c>
+      <c r="D151" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="E151" s="8"/>
+      <c r="F151" s="8"/>
+      <c r="G151" s="8"/>
+      <c r="H151" s="8"/>
+      <c r="I151" s="8"/>
+      <c r="J151" s="8"/>
+      <c r="K151" s="8"/>
+      <c r="L151" s="8"/>
+      <c r="M151" s="8"/>
+      <c r="N151" s="8"/>
+    </row>
+    <row r="152" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C152" s="8">
+        <v>12</v>
+      </c>
+      <c r="D152" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="E152" s="8"/>
+      <c r="F152" s="8"/>
+      <c r="G152" s="8"/>
+      <c r="H152" s="8"/>
+      <c r="I152" s="8"/>
+      <c r="J152" s="8"/>
+      <c r="K152" s="8"/>
+      <c r="L152" s="8"/>
+      <c r="M152" s="8"/>
+      <c r="N152" s="8"/>
+    </row>
+    <row r="153" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C153" s="8">
+        <v>13</v>
+      </c>
+      <c r="D153" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="E153" s="8"/>
+      <c r="F153" s="8"/>
+      <c r="G153" s="8"/>
+      <c r="H153" s="8"/>
+      <c r="I153" s="8"/>
+      <c r="J153" s="8"/>
+      <c r="K153" s="8"/>
+      <c r="L153" s="8"/>
+      <c r="M153" s="8"/>
+      <c r="N153" s="8"/>
+    </row>
+    <row r="157" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C157" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="D157" s="12"/>
+      <c r="E157" s="12"/>
+      <c r="F157" s="12"/>
+      <c r="G157" s="12"/>
+      <c r="H157" s="12"/>
+      <c r="I157" s="12"/>
+      <c r="J157" s="12"/>
+      <c r="K157" s="12"/>
+      <c r="L157" s="12"/>
+      <c r="M157" s="12"/>
+      <c r="N157" s="12"/>
+    </row>
+    <row r="158" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C158" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="D158" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="E158" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="F158" s="14"/>
+      <c r="G158" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="H158" s="15"/>
+      <c r="I158" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="J158" s="15"/>
+      <c r="K158" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="L158" s="15"/>
+      <c r="M158" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="N158" s="15"/>
+    </row>
+    <row r="159" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C159" s="8">
+        <v>1</v>
+      </c>
+      <c r="D159" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E159" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F159" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G159" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="H159" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I159" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="J159" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="K159" s="8" t="s">
+        <v>59</v>
+      </c>
+      <c r="L159" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="M159" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="N159" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="160" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C160" s="8">
+        <v>2</v>
+      </c>
+      <c r="D160" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E160" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F160" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G160" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H160" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I160" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="J160" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="K160" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="L160" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="M160" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="N160" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="161" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C161" s="8">
+        <v>3</v>
+      </c>
+      <c r="D161" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="E161" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F161" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G161" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H161" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I161" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="J161" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="K161" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="L161" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="M161" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="N161" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="162" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C162" s="8">
+        <v>4</v>
+      </c>
+      <c r="D162" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E162" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="F162" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G162" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="H162" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I162" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="J162" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="K162" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="L162" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="M162" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="N162" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="163" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C163" s="8">
+        <v>5</v>
+      </c>
+      <c r="D163" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E163" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F163" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="G163" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="H163" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="I163" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="J163" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="K163" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="L163" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="M163" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="N163" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="164" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C164" s="8">
+        <v>6</v>
+      </c>
+      <c r="D164" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E164" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F164" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G164" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="H164" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="I164" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="J164" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="K164" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="L164" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="M164" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="N164" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="165" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C165" s="8">
+        <v>7</v>
+      </c>
+      <c r="D165" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="E165" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F165" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="G165" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="H165" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="I165" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J165" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="K165" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="L165" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="M165" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="N165" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="166" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C166" s="8">
+        <v>8</v>
+      </c>
+      <c r="D166" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="E166" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F166" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G166" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="H166" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="I166" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="J166" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="K166" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="L166" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="M166" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="N166" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="167" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C167" s="8">
+        <v>9</v>
+      </c>
+      <c r="D167" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E167" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F167" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="G167" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="H167" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="I167" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="J167" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="K167" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="L167" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="M167" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="N167" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="168" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C168" s="8">
+        <v>10</v>
+      </c>
+      <c r="D168" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="E168" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F168" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G168" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H168" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I168" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J168" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="K168" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="L168" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="M168" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="N168" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="169" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C169" s="8">
+        <v>11</v>
+      </c>
+      <c r="D169" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="E169" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F169" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G169" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H169" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I169" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="J169" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="K169" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="L169" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="M169" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="N169" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="170" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C170" s="8">
+        <v>12</v>
+      </c>
+      <c r="D170" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="E170" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F170" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="G170" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="H170" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="I170" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="J170" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="K170" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="L170" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="M170" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="N170" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="174" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C174" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="D174" s="12"/>
+      <c r="E174" s="12"/>
+      <c r="F174" s="12"/>
+      <c r="G174" s="12"/>
+      <c r="H174" s="12"/>
+      <c r="I174" s="12"/>
+      <c r="J174" s="12"/>
+      <c r="K174" s="12"/>
+      <c r="L174" s="12"/>
+      <c r="M174" s="12"/>
+      <c r="N174" s="12"/>
+    </row>
+    <row r="175" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C175" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="D175" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="E175" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="F175" s="14"/>
+      <c r="G175" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="H175" s="15"/>
+      <c r="I175" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="J175" s="15"/>
+      <c r="K175" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="L175" s="15"/>
+      <c r="M175" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="N175" s="15"/>
+    </row>
+    <row r="176" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C176" s="8">
+        <v>1</v>
+      </c>
+      <c r="D176" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="E176" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="F176" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G176" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="H176" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="I176" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="J176" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="K176" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="L176" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="M176" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="N176" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="177" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C177" s="8">
+        <v>2</v>
+      </c>
+      <c r="D177" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="E177" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F177" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="G177" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="H177" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="I177" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="J177" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="K177" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="L177" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="M177" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="N177" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="178" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C178" s="8">
+        <v>3</v>
+      </c>
+      <c r="D178" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="E178" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="F178" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="G178" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="H178" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I178" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J178" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="K178" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="L178" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="M178" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="N178" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="179" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C179" s="8">
+        <v>4</v>
+      </c>
+      <c r="D179" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="E179" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F179" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G179" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="H179" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I179" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="J179" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="K179" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="L179" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="M179" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="N179" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="180" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C180" s="8">
+        <v>5</v>
+      </c>
+      <c r="D180" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="E180" s="8"/>
+      <c r="F180" s="8"/>
+      <c r="G180" s="8"/>
+      <c r="H180" s="8"/>
+      <c r="I180" s="8"/>
+      <c r="J180" s="8"/>
+      <c r="K180" s="8"/>
+      <c r="L180" s="8"/>
+      <c r="M180" s="8"/>
+      <c r="N180" s="8"/>
+    </row>
+    <row r="181" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C181" s="8">
+        <v>6</v>
+      </c>
+      <c r="D181" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="E181" s="8"/>
+      <c r="F181" s="8"/>
+      <c r="G181" s="8"/>
+      <c r="H181" s="8"/>
+      <c r="I181" s="8"/>
+      <c r="J181" s="8"/>
+      <c r="K181" s="8"/>
+      <c r="L181" s="8"/>
+      <c r="M181" s="8"/>
+      <c r="N181" s="8"/>
+    </row>
+    <row r="182" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C182" s="8">
+        <v>7</v>
+      </c>
+      <c r="D182" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="E182" s="8"/>
+      <c r="F182" s="8"/>
+      <c r="G182" s="8"/>
+      <c r="H182" s="8"/>
+      <c r="I182" s="8"/>
+      <c r="J182" s="8"/>
+      <c r="K182" s="8"/>
+      <c r="L182" s="8"/>
+      <c r="M182" s="8"/>
+      <c r="N182" s="8"/>
+    </row>
+    <row r="183" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C183" s="8">
+        <v>8</v>
+      </c>
+      <c r="D183" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="E183" s="8"/>
+      <c r="F183" s="8"/>
+      <c r="G183" s="8"/>
+      <c r="H183" s="8"/>
+      <c r="I183" s="8"/>
+      <c r="J183" s="8"/>
+      <c r="K183" s="8"/>
+      <c r="L183" s="8"/>
+      <c r="M183" s="8"/>
+      <c r="N183" s="8"/>
+    </row>
+    <row r="184" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C184" s="8">
+        <v>9</v>
+      </c>
+      <c r="D184" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="E184" s="8"/>
+      <c r="F184" s="8"/>
+      <c r="G184" s="8"/>
+      <c r="H184" s="8"/>
+      <c r="I184" s="8"/>
+      <c r="J184" s="8"/>
+      <c r="K184" s="8"/>
+      <c r="L184" s="8"/>
+      <c r="M184" s="8"/>
+      <c r="N184" s="8"/>
+    </row>
+    <row r="185" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C185" s="8">
+        <v>10</v>
+      </c>
+      <c r="D185" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="E185" s="8"/>
+      <c r="F185" s="8"/>
+      <c r="G185" s="8"/>
+      <c r="H185" s="8"/>
+      <c r="I185" s="8"/>
+      <c r="J185" s="8"/>
+      <c r="K185" s="8"/>
+      <c r="L185" s="8"/>
+      <c r="M185" s="8"/>
+      <c r="N185" s="8"/>
+    </row>
+    <row r="186" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C186" s="8">
+        <v>11</v>
+      </c>
+      <c r="D186" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="E186" s="8"/>
+      <c r="F186" s="8"/>
+      <c r="G186" s="8"/>
+      <c r="H186" s="8"/>
+      <c r="I186" s="8"/>
+      <c r="J186" s="8"/>
+      <c r="K186" s="8"/>
+      <c r="L186" s="8"/>
+      <c r="M186" s="8"/>
+      <c r="N186" s="8"/>
+    </row>
+    <row r="187" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C187" s="8">
+        <v>12</v>
+      </c>
+      <c r="D187" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="E187" s="8"/>
+      <c r="F187" s="8"/>
+      <c r="G187" s="8"/>
+      <c r="H187" s="8"/>
+      <c r="I187" s="8"/>
+      <c r="J187" s="8"/>
+      <c r="K187" s="8"/>
+      <c r="L187" s="8"/>
+      <c r="M187" s="8"/>
+      <c r="N187" s="8"/>
+    </row>
+    <row r="188" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C188" s="8">
+        <v>13</v>
+      </c>
+      <c r="D188" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="E188" s="8"/>
+      <c r="F188" s="8"/>
+      <c r="G188" s="8"/>
+      <c r="H188" s="8"/>
+      <c r="I188" s="8"/>
+      <c r="J188" s="8"/>
+      <c r="K188" s="8"/>
+      <c r="L188" s="8"/>
+      <c r="M188" s="8"/>
+      <c r="N188" s="8"/>
+    </row>
+    <row r="192" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C192" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="D192" s="12"/>
+      <c r="E192" s="12"/>
+      <c r="F192" s="12"/>
+      <c r="G192" s="12"/>
+      <c r="H192" s="12"/>
+      <c r="I192" s="12"/>
+      <c r="J192" s="12"/>
+      <c r="K192" s="12"/>
+      <c r="L192" s="12"/>
+      <c r="M192" s="12"/>
+      <c r="N192" s="12"/>
+    </row>
+    <row r="193" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C193" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="D193" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="E193" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="F193" s="14"/>
+      <c r="G193" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="H193" s="15"/>
+      <c r="I193" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="J193" s="15"/>
+      <c r="K193" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="L193" s="15"/>
+      <c r="M193" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="N193" s="15"/>
+    </row>
+    <row r="194" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C194" s="8">
+        <v>1</v>
+      </c>
+      <c r="D194" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E194" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F194" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G194" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="H194" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I194" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="J194" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="K194" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="L194" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="M194" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="N194" s="8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="195" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C195" s="8">
+        <v>2</v>
+      </c>
+      <c r="D195" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E195" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F195" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G195" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="H195" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I195" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="J195" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="K195" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="L195" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="M195" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="N195" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="196" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C196" s="8">
+        <v>3</v>
+      </c>
+      <c r="D196" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="E196" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F196" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G196" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H196" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I196" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="J196" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="K196" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="L196" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="M196" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="N196" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="197" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C197" s="8">
+        <v>4</v>
+      </c>
+      <c r="D197" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E197" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F197" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G197" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="H197" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="I197" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="J197" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="K197" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="L197" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="M197" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="N197" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="198" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C198" s="8">
+        <v>5</v>
+      </c>
+      <c r="D198" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E198" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F198" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="G198" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="H198" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="I198" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="J198" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="K198" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="L198" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="M198" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="N198" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="199" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C199" s="8">
+        <v>6</v>
+      </c>
+      <c r="D199" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E199" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F199" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G199" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="H199" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="I199" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="J199" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="K199" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="L199" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="M199" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="N199" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="200" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C200" s="8">
+        <v>7</v>
+      </c>
+      <c r="D200" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="E200" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F200" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="G200" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="H200" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="I200" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J200" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="K200" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="L200" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="M200" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="N200" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="201" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C201" s="8">
+        <v>8</v>
+      </c>
+      <c r="D201" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="E201" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F201" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G201" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="H201" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="I201" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="J201" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="K201" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="L201" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="M201" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="N201" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="202" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C202" s="8">
+        <v>9</v>
+      </c>
+      <c r="D202" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E202" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="F202" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="G202" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="H202" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="I202" s="8" t="s">
+        <v>123</v>
+      </c>
+      <c r="J202" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="K202" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="L202" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="M202" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="N202" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="203" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C203" s="8">
+        <v>10</v>
+      </c>
+      <c r="D203" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="E203" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="F203" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G203" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="H203" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I203" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="J203" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="K203" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="L203" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="M203" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="N203" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="204" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C204" s="8">
+        <v>11</v>
+      </c>
+      <c r="D204" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="E204" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F204" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G204" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H204" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I204" s="8" t="s">
+        <v>110</v>
+      </c>
+      <c r="J204" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="K204" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="L204" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="M204" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="N204" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="205" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C205" s="8">
+        <v>12</v>
+      </c>
+      <c r="D205" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="E205" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F205" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="G205" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="H205" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="I205" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="J205" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="K205" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="L205" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="M205" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="N205" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="209" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C209" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="D209" s="12"/>
+      <c r="E209" s="12"/>
+      <c r="F209" s="12"/>
+      <c r="G209" s="12"/>
+      <c r="H209" s="12"/>
+      <c r="I209" s="12"/>
+      <c r="J209" s="12"/>
+      <c r="K209" s="12"/>
+      <c r="L209" s="12"/>
+      <c r="M209" s="12"/>
+      <c r="N209" s="12"/>
+    </row>
+    <row r="210" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C210" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="D210" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="E210" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="F210" s="14"/>
+      <c r="G210" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="H210" s="15"/>
+      <c r="I210" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="J210" s="15"/>
+      <c r="K210" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="L210" s="15"/>
+      <c r="M210" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="N210" s="15"/>
+    </row>
+    <row r="211" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C211" s="8">
+        <v>1</v>
+      </c>
+      <c r="D211" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="E211" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="F211" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="G211" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="H211" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="I211" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="J211" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="K211" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="L211" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="M211" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="N211" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="212" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C212" s="8">
+        <v>2</v>
+      </c>
+      <c r="D212" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="E212" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F212" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="G212" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="H212" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="I212" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="J212" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="K212" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="L212" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="M212" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="N212" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="213" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C213" s="8">
+        <v>3</v>
+      </c>
+      <c r="D213" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="E213" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="F213" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="G213" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="H213" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I213" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J213" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="K213" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="L213" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="M213" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="N213" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="214" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C214" s="8">
+        <v>4</v>
+      </c>
+      <c r="D214" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="E214" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F214" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G214" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="H214" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I214" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="J214" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="K214" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="L214" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="M214" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="N214" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="215" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C215" s="8">
+        <v>5</v>
+      </c>
+      <c r="D215" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="E215" s="8"/>
+      <c r="F215" s="8"/>
+      <c r="G215" s="8"/>
+      <c r="H215" s="8"/>
+      <c r="I215" s="8"/>
+      <c r="J215" s="8"/>
+      <c r="K215" s="8"/>
+      <c r="L215" s="8"/>
+      <c r="M215" s="8"/>
+      <c r="N215" s="8"/>
+    </row>
+    <row r="216" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C216" s="8">
+        <v>6</v>
+      </c>
+      <c r="D216" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="E216" s="8"/>
+      <c r="F216" s="8"/>
+      <c r="G216" s="8"/>
+      <c r="H216" s="8"/>
+      <c r="I216" s="8"/>
+      <c r="J216" s="8"/>
+      <c r="K216" s="8"/>
+      <c r="L216" s="8"/>
+      <c r="M216" s="8"/>
+      <c r="N216" s="8"/>
+    </row>
+    <row r="217" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C217" s="8">
+        <v>7</v>
+      </c>
+      <c r="D217" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="E217" s="8"/>
+      <c r="F217" s="8"/>
+      <c r="G217" s="8"/>
+      <c r="H217" s="8"/>
+      <c r="I217" s="8"/>
+      <c r="J217" s="8"/>
+      <c r="K217" s="8"/>
+      <c r="L217" s="8"/>
+      <c r="M217" s="8"/>
+      <c r="N217" s="8"/>
+    </row>
+    <row r="218" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C218" s="8">
+        <v>8</v>
+      </c>
+      <c r="D218" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="E218" s="8"/>
+      <c r="F218" s="8"/>
+      <c r="G218" s="8"/>
+      <c r="H218" s="8"/>
+      <c r="I218" s="8"/>
+      <c r="J218" s="8"/>
+      <c r="K218" s="8"/>
+      <c r="L218" s="8"/>
+      <c r="M218" s="8"/>
+      <c r="N218" s="8"/>
+    </row>
+    <row r="219" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C219" s="8">
+        <v>9</v>
+      </c>
+      <c r="D219" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="E219" s="8"/>
+      <c r="F219" s="8"/>
+      <c r="G219" s="8"/>
+      <c r="H219" s="8"/>
+      <c r="I219" s="8"/>
+      <c r="J219" s="8"/>
+      <c r="K219" s="8"/>
+      <c r="L219" s="8"/>
+      <c r="M219" s="8"/>
+      <c r="N219" s="8"/>
+    </row>
+    <row r="220" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C220" s="8">
+        <v>10</v>
+      </c>
+      <c r="D220" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="E220" s="8"/>
+      <c r="F220" s="8"/>
+      <c r="G220" s="8"/>
+      <c r="H220" s="8"/>
+      <c r="I220" s="8"/>
+      <c r="J220" s="8"/>
+      <c r="K220" s="8"/>
+      <c r="L220" s="8"/>
+      <c r="M220" s="8"/>
+      <c r="N220" s="8"/>
+    </row>
+    <row r="221" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C221" s="8">
+        <v>11</v>
+      </c>
+      <c r="D221" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="E221" s="8"/>
+      <c r="F221" s="8"/>
+      <c r="G221" s="8"/>
+      <c r="H221" s="8"/>
+      <c r="I221" s="8"/>
+      <c r="J221" s="8"/>
+      <c r="K221" s="8"/>
+      <c r="L221" s="8"/>
+      <c r="M221" s="8"/>
+      <c r="N221" s="8"/>
+    </row>
+    <row r="222" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C222" s="8">
+        <v>12</v>
+      </c>
+      <c r="D222" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="E222" s="8"/>
+      <c r="F222" s="8"/>
+      <c r="G222" s="8"/>
+      <c r="H222" s="8"/>
+      <c r="I222" s="8"/>
+      <c r="J222" s="8"/>
+      <c r="K222" s="8"/>
+      <c r="L222" s="8"/>
+      <c r="M222" s="8"/>
+      <c r="N222" s="8"/>
+    </row>
+    <row r="223" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C223" s="8">
+        <v>13</v>
+      </c>
+      <c r="D223" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="E223" s="8"/>
+      <c r="F223" s="8"/>
+      <c r="G223" s="8"/>
+      <c r="H223" s="8"/>
+      <c r="I223" s="8"/>
+      <c r="J223" s="8"/>
+      <c r="K223" s="8"/>
+      <c r="L223" s="8"/>
+      <c r="M223" s="8"/>
+      <c r="N223" s="8"/>
+    </row>
+    <row r="227" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C227" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="D227" s="12"/>
+      <c r="E227" s="12"/>
+      <c r="F227" s="12"/>
+      <c r="G227" s="12"/>
+      <c r="H227" s="12"/>
+      <c r="I227" s="12"/>
+      <c r="J227" s="12"/>
+      <c r="K227" s="12"/>
+      <c r="L227" s="12"/>
+      <c r="M227" s="12"/>
+      <c r="N227" s="12"/>
+    </row>
+    <row r="228" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C228" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="D228" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="E228" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="F228" s="14"/>
+      <c r="G228" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="H228" s="15"/>
+      <c r="I228" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="J228" s="15"/>
+      <c r="K228" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="L228" s="15"/>
+      <c r="M228" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="N228" s="15"/>
+    </row>
+    <row r="229" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C229" s="8">
+        <v>1</v>
+      </c>
+      <c r="D229" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="E229" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="F229" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="G229" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="H229" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I229" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="J229" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K229" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="L229" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="M229" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="N229" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="230" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C230" s="8">
+        <v>2</v>
+      </c>
+      <c r="D230" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E230" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F230" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="G230" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H230" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="I230" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J230" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="K230" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="L230" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="M230" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="N230" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="231" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C231" s="8">
+        <v>3</v>
+      </c>
+      <c r="D231" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="E231" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F231" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="G231" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H231" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I231" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="J231" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="K231" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="L231" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="M231" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="N231" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="232" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C232" s="8">
+        <v>4</v>
+      </c>
+      <c r="D232" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="E232" s="8" t="s">
+        <v>0</v>
+      </c>
+      <c r="F232" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="G232" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="H232" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="I232" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="J232" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="K232" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="L232" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="M232" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="N232" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="233" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C233" s="8">
+        <v>5</v>
+      </c>
+      <c r="D233" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="E233" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="F233" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="G233" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="H233" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="I233" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="J233" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="K233" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="L233" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="M233" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="N233" s="8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="234" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C234" s="8">
+        <v>6</v>
+      </c>
+      <c r="D234" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="E234" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F234" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="G234" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H234" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="I234" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J234" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="K234" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="L234" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="M234" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="N234" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="235" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C235" s="8">
+        <v>7</v>
+      </c>
+      <c r="D235" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="E235" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="F235" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G235" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="H235" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="I235" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="J235" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="K235" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="L235" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="M235" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="N235" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="236" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C236" s="8">
+        <v>8</v>
+      </c>
+      <c r="D236" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="E236" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="F236" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="G236" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="H236" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="I236" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="J236" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="K236" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="L236" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="M236" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="N236" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="237" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C237" s="8">
+        <v>9</v>
+      </c>
+      <c r="D237" s="8" t="s">
+        <v>54</v>
+      </c>
+      <c r="E237" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F237" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="G237" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="H237" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="I237" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="J237" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="K237" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="L237" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="M237" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="N237" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="238" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C238" s="8">
+        <v>10</v>
+      </c>
+      <c r="D238" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="E238" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="F238" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="G238" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="H238" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="I238" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="J238" s="8" t="s">
+        <v>121</v>
+      </c>
+      <c r="K238" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="L238" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="M238" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="N238" s="8" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="239" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C239" s="8">
+        <v>11</v>
+      </c>
+      <c r="D239" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="E239" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F239" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="G239" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="H239" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="I239" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="J239" s="8" t="s">
+        <v>37</v>
+      </c>
+      <c r="K239" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="L239" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="M239" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="N239" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="240" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C240" s="8">
+        <v>12</v>
+      </c>
+      <c r="D240" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="E240" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="F240" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="G240" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="H240" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="I240" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="J240" s="8" t="s">
+        <v>77</v>
+      </c>
+      <c r="K240" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="L240" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="M240" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="N240" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="244" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C244" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="D244" s="12"/>
+      <c r="E244" s="12"/>
+      <c r="F244" s="12"/>
+      <c r="G244" s="12"/>
+      <c r="H244" s="12"/>
+      <c r="I244" s="12"/>
+      <c r="J244" s="12"/>
+      <c r="K244" s="12"/>
+      <c r="L244" s="12"/>
+      <c r="M244" s="12"/>
+      <c r="N244" s="12"/>
+    </row>
+    <row r="245" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C245" s="11" t="s">
+        <v>117</v>
+      </c>
+      <c r="D245" s="11" t="s">
+        <v>45</v>
+      </c>
+      <c r="E245" s="13" t="s">
+        <v>40</v>
+      </c>
+      <c r="F245" s="14"/>
+      <c r="G245" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="H245" s="15"/>
+      <c r="I245" s="15" t="s">
+        <v>42</v>
+      </c>
+      <c r="J245" s="15"/>
+      <c r="K245" s="15" t="s">
+        <v>43</v>
+      </c>
+      <c r="L245" s="15"/>
+      <c r="M245" s="15" t="s">
+        <v>44</v>
+      </c>
+      <c r="N245" s="15"/>
+    </row>
+    <row r="246" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C246" s="8">
+        <v>1</v>
+      </c>
+      <c r="D246" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="E246" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="F246" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="G246" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="H246" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="I246" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="J246" s="8" t="s">
+        <v>128</v>
+      </c>
+      <c r="K246" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="L246" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="M246" s="8" t="s">
+        <v>36</v>
+      </c>
+      <c r="N246" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="247" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C247" s="8">
+        <v>2</v>
+      </c>
+      <c r="D247" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="E247" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="F247" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="G247" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="H247" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="I247" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="J247" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="K247" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="L247" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="M247" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="N247" s="8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="248" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C248" s="8">
+        <v>3</v>
+      </c>
+      <c r="D248" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="E248" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="F248" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="G248" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="H248" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="I248" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="J248" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="K248" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="L248" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="M248" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="N248" s="8" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="249" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C249" s="8">
+        <v>4</v>
+      </c>
+      <c r="D249" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="E249" s="8" t="s">
+        <v>29</v>
+      </c>
+      <c r="F249" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="G249" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="H249" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="I249" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="J249" s="8" t="s">
+        <v>34</v>
+      </c>
+      <c r="K249" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="L249" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="M249" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="N249" s="8" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="250" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C250" s="8">
+        <v>5</v>
+      </c>
+      <c r="D250" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="E250" s="8"/>
+      <c r="F250" s="8"/>
+      <c r="G250" s="8"/>
+      <c r="H250" s="8"/>
+      <c r="I250" s="8"/>
+      <c r="J250" s="8"/>
+      <c r="K250" s="8"/>
+      <c r="L250" s="8"/>
+      <c r="M250" s="8"/>
+      <c r="N250" s="8"/>
+    </row>
+    <row r="251" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C251" s="8">
+        <v>6</v>
+      </c>
+      <c r="D251" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="E251" s="8"/>
+      <c r="F251" s="8"/>
+      <c r="G251" s="8"/>
+      <c r="H251" s="8"/>
+      <c r="I251" s="8"/>
+      <c r="J251" s="8"/>
+      <c r="K251" s="8"/>
+      <c r="L251" s="8"/>
+      <c r="M251" s="8"/>
+      <c r="N251" s="8"/>
+    </row>
+    <row r="252" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C252" s="8">
+        <v>7</v>
+      </c>
+      <c r="D252" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="E252" s="8"/>
+      <c r="F252" s="8"/>
+      <c r="G252" s="8"/>
+      <c r="H252" s="8"/>
+      <c r="I252" s="8"/>
+      <c r="J252" s="8"/>
+      <c r="K252" s="8"/>
+      <c r="L252" s="8"/>
+      <c r="M252" s="8"/>
+      <c r="N252" s="8"/>
+    </row>
+    <row r="253" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C253" s="8">
+        <v>8</v>
+      </c>
+      <c r="D253" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="E253" s="8"/>
+      <c r="F253" s="8"/>
+      <c r="G253" s="8"/>
+      <c r="H253" s="8"/>
+      <c r="I253" s="8"/>
+      <c r="J253" s="8"/>
+      <c r="K253" s="8"/>
+      <c r="L253" s="8"/>
+      <c r="M253" s="8"/>
+      <c r="N253" s="8"/>
+    </row>
+    <row r="254" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C254" s="8">
+        <v>9</v>
+      </c>
+      <c r="D254" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="E254" s="8"/>
+      <c r="F254" s="8"/>
+      <c r="G254" s="8"/>
+      <c r="H254" s="8"/>
+      <c r="I254" s="8"/>
+      <c r="J254" s="8"/>
+      <c r="K254" s="8"/>
+      <c r="L254" s="8"/>
+      <c r="M254" s="8"/>
+      <c r="N254" s="8"/>
+    </row>
+    <row r="255" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C255" s="8">
+        <v>10</v>
+      </c>
+      <c r="D255" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="E255" s="8"/>
+      <c r="F255" s="8"/>
+      <c r="G255" s="8"/>
+      <c r="H255" s="8"/>
+      <c r="I255" s="8"/>
+      <c r="J255" s="8"/>
+      <c r="K255" s="8"/>
+      <c r="L255" s="8"/>
+      <c r="M255" s="8"/>
+      <c r="N255" s="8"/>
+    </row>
+    <row r="256" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C256" s="8">
+        <v>11</v>
+      </c>
+      <c r="D256" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="E256" s="8"/>
+      <c r="F256" s="8"/>
+      <c r="G256" s="8"/>
+      <c r="H256" s="8"/>
+      <c r="I256" s="8"/>
+      <c r="J256" s="8"/>
+      <c r="K256" s="8"/>
+      <c r="L256" s="8"/>
+      <c r="M256" s="8"/>
+      <c r="N256" s="8"/>
+    </row>
+    <row r="257" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C257" s="8">
+        <v>12</v>
+      </c>
+      <c r="D257" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="E257" s="8"/>
+      <c r="F257" s="8"/>
+      <c r="G257" s="8"/>
+      <c r="H257" s="8"/>
+      <c r="I257" s="8"/>
+      <c r="J257" s="8"/>
+      <c r="K257" s="8"/>
+      <c r="L257" s="8"/>
+      <c r="M257" s="8"/>
+      <c r="N257" s="8"/>
+    </row>
+    <row r="258" spans="3:14" x14ac:dyDescent="0.25">
+      <c r="C258" s="8">
+        <v>13</v>
+      </c>
+      <c r="D258" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="E258" s="8"/>
+      <c r="F258" s="8"/>
+      <c r="G258" s="8"/>
+      <c r="H258" s="8"/>
+      <c r="I258" s="8"/>
+      <c r="J258" s="8"/>
+      <c r="K258" s="8"/>
+      <c r="L258" s="8"/>
+      <c r="M258" s="8"/>
+      <c r="N258" s="8"/>
+    </row>
   </sheetData>
-  <mergeCells count="74">
-    <mergeCell ref="D2:O2"/>
-    <mergeCell ref="D31:O31"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="D39:D40"/>
+  <mergeCells count="172">
     <mergeCell ref="F3:G3"/>
     <mergeCell ref="H3:I3"/>
     <mergeCell ref="J3:K3"/>
@@ -4944,32 +8619,35 @@
     <mergeCell ref="D8:D9"/>
     <mergeCell ref="D10:D11"/>
     <mergeCell ref="D12:D13"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="D51:D52"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="D45:D46"/>
+    <mergeCell ref="D47:D48"/>
+    <mergeCell ref="D49:D50"/>
     <mergeCell ref="D14:D15"/>
     <mergeCell ref="D16:D17"/>
     <mergeCell ref="D18:D19"/>
     <mergeCell ref="D20:D21"/>
     <mergeCell ref="D22:D23"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="D51:D52"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="L32:M32"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="D53:D54"/>
+    <mergeCell ref="D55:D56"/>
+    <mergeCell ref="F61:G61"/>
+    <mergeCell ref="H61:I61"/>
+    <mergeCell ref="J61:K61"/>
+    <mergeCell ref="L61:M61"/>
+    <mergeCell ref="N61:O61"/>
     <mergeCell ref="N32:O32"/>
     <mergeCell ref="D33:D34"/>
     <mergeCell ref="D35:D36"/>
     <mergeCell ref="D41:D42"/>
     <mergeCell ref="D43:D44"/>
-    <mergeCell ref="D45:D46"/>
-    <mergeCell ref="D47:D48"/>
-    <mergeCell ref="D49:D50"/>
-    <mergeCell ref="D53:D54"/>
-    <mergeCell ref="D55:D56"/>
-    <mergeCell ref="D60:O60"/>
-    <mergeCell ref="F61:G61"/>
-    <mergeCell ref="H61:I61"/>
-    <mergeCell ref="J61:K61"/>
-    <mergeCell ref="L61:M61"/>
-    <mergeCell ref="N61:O61"/>
+    <mergeCell ref="D101:D102"/>
     <mergeCell ref="D84:D85"/>
     <mergeCell ref="D62:D63"/>
     <mergeCell ref="D64:D65"/>
@@ -4982,9 +8660,21 @@
     <mergeCell ref="D78:D79"/>
     <mergeCell ref="D80:D81"/>
     <mergeCell ref="D82:D83"/>
+    <mergeCell ref="C43:C44"/>
+    <mergeCell ref="C45:C46"/>
+    <mergeCell ref="C47:C48"/>
+    <mergeCell ref="C49:C50"/>
+    <mergeCell ref="C2:O2"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="D117:D118"/>
+    <mergeCell ref="D105:D106"/>
+    <mergeCell ref="D107:D108"/>
+    <mergeCell ref="D109:D110"/>
+    <mergeCell ref="D111:D112"/>
+    <mergeCell ref="D113:D114"/>
+    <mergeCell ref="D115:D116"/>
     <mergeCell ref="D103:D104"/>
     <mergeCell ref="D86:D87"/>
-    <mergeCell ref="D91:O91"/>
     <mergeCell ref="F92:G92"/>
     <mergeCell ref="H92:I92"/>
     <mergeCell ref="J92:K92"/>
@@ -4994,14 +8684,102 @@
     <mergeCell ref="D95:D96"/>
     <mergeCell ref="D97:D98"/>
     <mergeCell ref="D99:D100"/>
-    <mergeCell ref="D101:D102"/>
-    <mergeCell ref="D117:D118"/>
-    <mergeCell ref="D105:D106"/>
-    <mergeCell ref="D107:D108"/>
-    <mergeCell ref="D109:D110"/>
-    <mergeCell ref="D111:D112"/>
-    <mergeCell ref="D113:D114"/>
-    <mergeCell ref="D115:D116"/>
+    <mergeCell ref="C76:C77"/>
+    <mergeCell ref="C78:C79"/>
+    <mergeCell ref="C80:C81"/>
+    <mergeCell ref="C82:C83"/>
+    <mergeCell ref="C84:C85"/>
+    <mergeCell ref="C51:C52"/>
+    <mergeCell ref="C53:C54"/>
+    <mergeCell ref="C55:C56"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="C41:C42"/>
+    <mergeCell ref="C113:C114"/>
+    <mergeCell ref="C115:C116"/>
+    <mergeCell ref="C117:C118"/>
+    <mergeCell ref="C86:C87"/>
+    <mergeCell ref="C31:O31"/>
+    <mergeCell ref="C60:O60"/>
+    <mergeCell ref="C91:O91"/>
+    <mergeCell ref="C103:C104"/>
+    <mergeCell ref="C105:C106"/>
+    <mergeCell ref="C107:C108"/>
+    <mergeCell ref="C109:C110"/>
+    <mergeCell ref="C111:C112"/>
+    <mergeCell ref="C93:C94"/>
+    <mergeCell ref="C95:C96"/>
+    <mergeCell ref="C97:C98"/>
+    <mergeCell ref="C99:C100"/>
+    <mergeCell ref="C101:C102"/>
+    <mergeCell ref="C62:C63"/>
+    <mergeCell ref="C64:C65"/>
+    <mergeCell ref="C66:C67"/>
+    <mergeCell ref="C68:C69"/>
+    <mergeCell ref="C70:C71"/>
+    <mergeCell ref="C72:C73"/>
+    <mergeCell ref="C74:C75"/>
+    <mergeCell ref="C139:N139"/>
+    <mergeCell ref="C122:N122"/>
+    <mergeCell ref="E123:F123"/>
+    <mergeCell ref="G123:H123"/>
+    <mergeCell ref="I123:J123"/>
+    <mergeCell ref="K123:L123"/>
+    <mergeCell ref="M123:N123"/>
+    <mergeCell ref="E140:F140"/>
+    <mergeCell ref="G140:H140"/>
+    <mergeCell ref="I140:J140"/>
+    <mergeCell ref="K140:L140"/>
+    <mergeCell ref="M140:N140"/>
+    <mergeCell ref="C174:N174"/>
+    <mergeCell ref="E175:F175"/>
+    <mergeCell ref="G175:H175"/>
+    <mergeCell ref="I175:J175"/>
+    <mergeCell ref="K175:L175"/>
+    <mergeCell ref="M175:N175"/>
+    <mergeCell ref="C157:N157"/>
+    <mergeCell ref="E158:F158"/>
+    <mergeCell ref="G158:H158"/>
+    <mergeCell ref="I158:J158"/>
+    <mergeCell ref="K158:L158"/>
+    <mergeCell ref="M158:N158"/>
+    <mergeCell ref="C209:N209"/>
+    <mergeCell ref="E210:F210"/>
+    <mergeCell ref="G210:H210"/>
+    <mergeCell ref="I210:J210"/>
+    <mergeCell ref="K210:L210"/>
+    <mergeCell ref="M210:N210"/>
+    <mergeCell ref="C192:N192"/>
+    <mergeCell ref="E193:F193"/>
+    <mergeCell ref="G193:H193"/>
+    <mergeCell ref="I193:J193"/>
+    <mergeCell ref="K193:L193"/>
+    <mergeCell ref="M193:N193"/>
+    <mergeCell ref="C244:N244"/>
+    <mergeCell ref="E245:F245"/>
+    <mergeCell ref="G245:H245"/>
+    <mergeCell ref="I245:J245"/>
+    <mergeCell ref="K245:L245"/>
+    <mergeCell ref="M245:N245"/>
+    <mergeCell ref="C227:N227"/>
+    <mergeCell ref="E228:F228"/>
+    <mergeCell ref="G228:H228"/>
+    <mergeCell ref="I228:J228"/>
+    <mergeCell ref="K228:L228"/>
+    <mergeCell ref="M228:N228"/>
   </mergeCells>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/Avaliação/Tabelas.xlsx
+++ b/Avaliação/Tabelas.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="415" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
+    <workbookView activeTab="0" firstSheet="0" showHorizontalScroll="true" showSheetTabs="true" showVerticalScroll="true" tabRatio="832" windowHeight="8192" windowWidth="16384" xWindow="0" yWindow="0"/>
   </bookViews>
   <sheets>
     <sheet name="Plan1" sheetId="1" state="visible" r:id="rId2"/>
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3244" uniqueCount="138">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3364" uniqueCount="139">
   <si>
     <t>ENPC – Bases Desbalanceadas</t>
   </si>
@@ -431,6 +431,9 @@
   </si>
   <si>
     <t>0.18</t>
+  </si>
+  <si>
+    <t>0.34</t>
   </si>
 </sst>
 </file>
@@ -588,8 +591,8 @@
   </sheetPr>
   <dimension ref="A1:AA258"/>
   <sheetViews>
-    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="A220" view="normal" windowProtection="false" workbookViewId="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100">
-      <selection activeCell="E250" activeCellId="0" pane="topLeft" sqref="E250"/>
+    <sheetView colorId="64" defaultGridColor="true" rightToLeft="false" showFormulas="false" showGridLines="true" showOutlineSymbols="true" showRowColHeaders="true" showZeros="true" tabSelected="true" topLeftCell="D220" view="normal" windowProtection="false" workbookViewId="0" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100">
+      <selection activeCell="E256" activeCellId="0" pane="topLeft" sqref="E256"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -11967,7 +11970,7 @@
       </c>
       <c r="AA245" s="5"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.75" outlineLevel="0" r="246">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="246">
       <c r="C246" s="7" t="n">
         <v>1</v>
       </c>
@@ -11975,34 +11978,34 @@
         <v>81</v>
       </c>
       <c r="E246" s="7" t="s">
-        <v>84</v>
+        <v>14</v>
       </c>
       <c r="F246" s="7" t="s">
-        <v>42</v>
+        <v>33</v>
       </c>
       <c r="G246" s="7" t="s">
         <v>84</v>
       </c>
       <c r="H246" s="7" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="I246" s="7" t="s">
         <v>14</v>
       </c>
       <c r="J246" s="7" t="s">
-        <v>137</v>
+        <v>51</v>
       </c>
       <c r="K246" s="7" t="s">
         <v>14</v>
       </c>
       <c r="L246" s="7" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="M246" s="7" t="s">
         <v>61</v>
       </c>
       <c r="N246" s="7" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="P246" s="7" t="n">
         <v>1</v>
@@ -12010,18 +12013,38 @@
       <c r="Q246" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="R246" s="7"/>
-      <c r="S246" s="7"/>
-      <c r="T246" s="7"/>
-      <c r="U246" s="7"/>
-      <c r="V246" s="7"/>
-      <c r="W246" s="7"/>
-      <c r="X246" s="7"/>
-      <c r="Y246" s="7"/>
-      <c r="Z246" s="7"/>
-      <c r="AA246" s="7"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.75" outlineLevel="0" r="247">
+      <c r="R246" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="S246" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="T246" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="U246" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="V246" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="W246" s="7" t="s">
+        <v>137</v>
+      </c>
+      <c r="X246" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y246" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="Z246" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="AA246" s="7" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="247">
       <c r="C247" s="7" t="n">
         <v>2</v>
       </c>
@@ -12029,7 +12052,7 @@
         <v>85</v>
       </c>
       <c r="E247" s="7" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F247" s="7" t="s">
         <v>35</v>
@@ -12044,13 +12067,13 @@
         <v>27</v>
       </c>
       <c r="J247" s="7" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="K247" s="7" t="s">
         <v>24</v>
       </c>
       <c r="L247" s="7" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="M247" s="7" t="s">
         <v>16</v>
@@ -12064,18 +12087,38 @@
       <c r="Q247" s="7" t="s">
         <v>85</v>
       </c>
-      <c r="R247" s="7"/>
-      <c r="S247" s="7"/>
-      <c r="T247" s="7"/>
-      <c r="U247" s="7"/>
-      <c r="V247" s="7"/>
-      <c r="W247" s="7"/>
-      <c r="X247" s="7"/>
-      <c r="Y247" s="7"/>
-      <c r="Z247" s="7"/>
-      <c r="AA247" s="7"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.75" outlineLevel="0" r="248">
+      <c r="R247" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="S247" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="T247" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="U247" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="V247" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="W247" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="X247" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="Y247" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z247" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA247" s="7" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="248">
       <c r="C248" s="7" t="n">
         <v>3</v>
       </c>
@@ -12086,28 +12129,28 @@
         <v>49</v>
       </c>
       <c r="F248" s="7" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="G248" s="7" t="s">
-        <v>83</v>
+        <v>14</v>
       </c>
       <c r="H248" s="7" t="s">
-        <v>42</v>
+        <v>75</v>
       </c>
       <c r="I248" s="7" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="J248" s="7" t="s">
         <v>13</v>
       </c>
       <c r="K248" s="7" t="s">
-        <v>46</v>
+        <v>12</v>
       </c>
       <c r="L248" s="7" t="s">
-        <v>11</v>
+        <v>33</v>
       </c>
       <c r="M248" s="7" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="N248" s="7" t="s">
         <v>35</v>
@@ -12118,16 +12161,36 @@
       <c r="Q248" s="7" t="s">
         <v>86</v>
       </c>
-      <c r="R248" s="7"/>
-      <c r="S248" s="7"/>
-      <c r="T248" s="7"/>
-      <c r="U248" s="7"/>
-      <c r="V248" s="7"/>
-      <c r="W248" s="7"/>
-      <c r="X248" s="7"/>
-      <c r="Y248" s="7"/>
-      <c r="Z248" s="7"/>
-      <c r="AA248" s="7"/>
+      <c r="R248" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="S248" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="T248" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="U248" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="V248" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="W248" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="X248" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="Y248" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Z248" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="AA248" s="7" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="13.3" outlineLevel="0" r="249">
       <c r="C249" s="7" t="n">
@@ -12137,31 +12200,31 @@
         <v>88</v>
       </c>
       <c r="E249" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="F249" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="G249" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="F249" s="7" t="s">
+      <c r="H249" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="G249" s="7" t="s">
-        <v>24</v>
-      </c>
-      <c r="H249" s="7" t="s">
-        <v>13</v>
-      </c>
       <c r="I249" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="J249" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="K249" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="J249" s="7" t="s">
-        <v>59</v>
-      </c>
-      <c r="K249" s="7" t="s">
-        <v>26</v>
-      </c>
       <c r="L249" s="7" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="M249" s="7" t="s">
-        <v>22</v>
+        <v>49</v>
       </c>
       <c r="N249" s="7" t="s">
         <v>25</v>
@@ -12172,34 +12235,74 @@
       <c r="Q249" s="7" t="s">
         <v>88</v>
       </c>
-      <c r="R249" s="7"/>
-      <c r="S249" s="7"/>
-      <c r="T249" s="7"/>
-      <c r="U249" s="7"/>
-      <c r="V249" s="7"/>
-      <c r="W249" s="7"/>
-      <c r="X249" s="7"/>
-      <c r="Y249" s="7"/>
-      <c r="Z249" s="7"/>
-      <c r="AA249" s="7"/>
-    </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.75" outlineLevel="0" r="250">
+      <c r="R249" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="S249" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="T249" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="U249" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="V249" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="W249" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="X249" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y249" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="Z249" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="AA249" s="7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="250">
       <c r="C250" s="7" t="n">
         <v>5</v>
       </c>
       <c r="D250" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="E250" s="7"/>
-      <c r="F250" s="7"/>
-      <c r="G250" s="7"/>
-      <c r="H250" s="7"/>
-      <c r="I250" s="7"/>
-      <c r="J250" s="7"/>
-      <c r="K250" s="7"/>
-      <c r="L250" s="7"/>
-      <c r="M250" s="7"/>
-      <c r="N250" s="7"/>
+      <c r="E250" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="F250" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G250" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="H250" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="I250" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="J250" s="7" t="s">
+        <v>20</v>
+      </c>
+      <c r="K250" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="L250" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="M250" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="N250" s="7" t="s">
+        <v>25</v>
+      </c>
       <c r="P250" s="7" t="n">
         <v>5</v>
       </c>
@@ -12217,23 +12320,43 @@
       <c r="Z250" s="7"/>
       <c r="AA250" s="7"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.75" outlineLevel="0" r="251">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="251">
       <c r="C251" s="7" t="n">
         <v>6</v>
       </c>
       <c r="D251" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="E251" s="7"/>
-      <c r="F251" s="7"/>
-      <c r="G251" s="7"/>
-      <c r="H251" s="7"/>
-      <c r="I251" s="7"/>
-      <c r="J251" s="7"/>
-      <c r="K251" s="7"/>
-      <c r="L251" s="7"/>
-      <c r="M251" s="7"/>
-      <c r="N251" s="7"/>
+      <c r="E251" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F251" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G251" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="H251" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="I251" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="J251" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="K251" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="L251" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="M251" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="N251" s="7" t="s">
+        <v>28</v>
+      </c>
       <c r="P251" s="7" t="n">
         <v>6</v>
       </c>
@@ -12258,16 +12381,36 @@
       <c r="D252" s="7" t="s">
         <v>96</v>
       </c>
-      <c r="E252" s="7"/>
-      <c r="F252" s="7"/>
-      <c r="G252" s="7"/>
-      <c r="H252" s="7"/>
-      <c r="I252" s="7"/>
-      <c r="J252" s="7"/>
-      <c r="K252" s="7"/>
-      <c r="L252" s="7"/>
-      <c r="M252" s="7"/>
-      <c r="N252" s="7"/>
+      <c r="E252" s="7" t="s">
+        <v>82</v>
+      </c>
+      <c r="F252" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G252" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="H252" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I252" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="J252" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="K252" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="L252" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="M252" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="N252" s="7" t="s">
+        <v>35</v>
+      </c>
       <c r="P252" s="7" t="n">
         <v>7</v>
       </c>
@@ -12292,16 +12435,36 @@
       <c r="D253" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="E253" s="7"/>
-      <c r="F253" s="7"/>
-      <c r="G253" s="7"/>
-      <c r="H253" s="7"/>
-      <c r="I253" s="7"/>
-      <c r="J253" s="7"/>
-      <c r="K253" s="7"/>
-      <c r="L253" s="7"/>
-      <c r="M253" s="7"/>
-      <c r="N253" s="7"/>
+      <c r="E253" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="F253" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="G253" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="H253" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="I253" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="J253" s="7" t="s">
+        <v>33</v>
+      </c>
+      <c r="K253" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="L253" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="M253" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="N253" s="7" t="s">
+        <v>35</v>
+      </c>
       <c r="P253" s="7" t="n">
         <v>8</v>
       </c>
@@ -12353,23 +12516,43 @@
       <c r="Z254" s="7"/>
       <c r="AA254" s="7"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.75" outlineLevel="0" r="255">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="255">
       <c r="C255" s="7" t="n">
         <v>10</v>
       </c>
       <c r="D255" s="7" t="s">
         <v>102</v>
       </c>
-      <c r="E255" s="7"/>
-      <c r="F255" s="7"/>
-      <c r="G255" s="7"/>
-      <c r="H255" s="7"/>
-      <c r="I255" s="7"/>
-      <c r="J255" s="7"/>
-      <c r="K255" s="7"/>
-      <c r="L255" s="7"/>
-      <c r="M255" s="7"/>
-      <c r="N255" s="7"/>
+      <c r="E255" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="F255" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G255" s="7" t="s">
+        <v>105</v>
+      </c>
+      <c r="H255" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="I255" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="J255" s="7" t="s">
+        <v>53</v>
+      </c>
+      <c r="K255" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="L255" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="M255" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="N255" s="7" t="s">
+        <v>35</v>
+      </c>
       <c r="P255" s="7" t="n">
         <v>10</v>
       </c>
@@ -12387,23 +12570,43 @@
       <c r="Z255" s="7"/>
       <c r="AA255" s="7"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.75" outlineLevel="0" r="256">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="256">
       <c r="C256" s="7" t="n">
         <v>11</v>
       </c>
       <c r="D256" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="E256" s="7"/>
-      <c r="F256" s="7"/>
-      <c r="G256" s="7"/>
-      <c r="H256" s="7"/>
-      <c r="I256" s="7"/>
-      <c r="J256" s="7"/>
-      <c r="K256" s="7"/>
-      <c r="L256" s="7"/>
-      <c r="M256" s="7"/>
-      <c r="N256" s="7"/>
+      <c r="E256" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="F256" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="G256" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="H256" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="I256" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="J256" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="K256" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="L256" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="M256" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="N256" s="7" t="s">
+        <v>35</v>
+      </c>
       <c r="P256" s="7" t="n">
         <v>11</v>
       </c>
@@ -12421,23 +12624,43 @@
       <c r="Z256" s="7"/>
       <c r="AA256" s="7"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.75" outlineLevel="0" r="257">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="257">
       <c r="C257" s="7" t="n">
         <v>12</v>
       </c>
       <c r="D257" s="7" t="s">
         <v>108</v>
       </c>
-      <c r="E257" s="7"/>
-      <c r="F257" s="7"/>
-      <c r="G257" s="7"/>
-      <c r="H257" s="7"/>
-      <c r="I257" s="7"/>
-      <c r="J257" s="7"/>
-      <c r="K257" s="7"/>
-      <c r="L257" s="7"/>
-      <c r="M257" s="7"/>
-      <c r="N257" s="7"/>
+      <c r="E257" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F257" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G257" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="H257" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="I257" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="J257" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="K257" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="L257" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M257" s="7" t="s">
+        <v>52</v>
+      </c>
+      <c r="N257" s="7" t="s">
+        <v>35</v>
+      </c>
       <c r="P257" s="7" t="n">
         <v>12</v>
       </c>
@@ -12455,23 +12678,43 @@
       <c r="Z257" s="7"/>
       <c r="AA257" s="7"/>
     </row>
-    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="15.75" outlineLevel="0" r="258">
+    <row collapsed="false" customFormat="false" customHeight="false" hidden="false" ht="14.9" outlineLevel="0" r="258">
       <c r="C258" s="7" t="n">
         <v>13</v>
       </c>
       <c r="D258" s="7" t="s">
         <v>109</v>
       </c>
-      <c r="E258" s="7"/>
-      <c r="F258" s="7"/>
-      <c r="G258" s="7"/>
-      <c r="H258" s="7"/>
-      <c r="I258" s="7"/>
-      <c r="J258" s="7"/>
-      <c r="K258" s="7"/>
-      <c r="L258" s="7"/>
-      <c r="M258" s="7"/>
-      <c r="N258" s="7"/>
+      <c r="E258" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="F258" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G258" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="H258" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="I258" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="J258" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="K258" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="L258" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M258" s="7" t="s">
+        <v>138</v>
+      </c>
+      <c r="N258" s="7" t="s">
+        <v>35</v>
+      </c>
       <c r="P258" s="7" t="n">
         <v>13</v>
       </c>
